--- a/E220パラメータ比較.xlsx
+++ b/E220パラメータ比較.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>E220 parameters</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>EByte E220-900D22T parameters</t>
+  </si>
+  <si>
+    <t>CLEALINK E220-900T22S(JP)</t>
+  </si>
+  <si>
+    <t>設定</t>
   </si>
   <si>
     <t>00H</t>
@@ -28,10 +34,16 @@
     <t>ADDH</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>01H</t>
   </si>
   <si>
     <t>ADDL</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>02H</t>
@@ -82,10 +94,16 @@
     <t>Transmitting Power</t>
   </si>
   <si>
-    <t>00: 22db</t>
+    <t>00: 22dbM</t>
   </si>
   <si>
     <t>Transmitting Power (00 不可)</t>
+  </si>
+  <si>
+    <t>01: 13dBm</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>04H</t>
@@ -100,19 +118,40 @@
     <t>Channel (チャンネル数異なる）</t>
   </si>
   <si>
+    <t>BW500kHzの場合、0-30Ch</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>05H</t>
   </si>
   <si>
     <t xml:space="preserve">Enable RSSI </t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Transmitting method</t>
+  </si>
+  <si>
+    <t>0: Transparemt</t>
   </si>
   <si>
     <t>LBT enable</t>
   </si>
   <si>
+    <t>0: Disable</t>
+  </si>
+  <si>
     <t>WOR cycle</t>
+  </si>
+  <si>
+    <t>011: 2000ms (?)</t>
+  </si>
+  <si>
+    <t>011:</t>
   </si>
   <si>
     <t>06H</t>
@@ -137,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -149,8 +188,19 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +211,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -220,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -230,13 +286,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -257,8 +322,17 @@
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -269,14 +343,20 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,6 +579,7 @@
     <col customWidth="1" min="4" max="4" width="21.38"/>
     <col customWidth="1" min="5" max="5" width="31.25"/>
     <col customWidth="1" min="6" max="6" width="4.75"/>
+    <col customWidth="1" min="7" max="7" width="24.75"/>
     <col customWidth="1" min="8" max="8" width="33.25"/>
   </cols>
   <sheetData>
@@ -508,4245 +589,5317 @@
       </c>
       <c r="C1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9">
         <v>7.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10">
         <v>7.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6">
-      <c r="C6" s="8">
+      <c r="C6" s="11">
         <v>6.0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="12">
         <v>6.0</v>
       </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7">
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>5.0</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="14">
         <v>5.0</v>
       </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8">
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>4.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15">
         <v>4.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2"/>
     </row>
     <row r="9">
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>3.0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="17">
         <v>3.0</v>
       </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10">
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>2.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8">
+        <v>19</v>
+      </c>
+      <c r="F10" s="17">
         <v>2.0</v>
       </c>
+      <c r="I10" s="2"/>
     </row>
     <row r="11">
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <v>1.0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="17">
         <v>1.0</v>
       </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12">
-      <c r="C12" s="10">
+      <c r="C12" s="13">
         <v>0.0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="18">
         <v>0.0</v>
       </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
         <v>7.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7">
+        <v>21</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="10">
         <v>7.0</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14">
-      <c r="C14" s="10">
+      <c r="C14" s="13">
         <v>6.0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="14">
         <v>6.0</v>
       </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15">
-      <c r="C15" s="14">
+      <c r="C15" s="20">
         <v>5.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="15">
+        <v>23</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21">
         <v>5.0</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16">
-      <c r="C16" s="6">
+      <c r="C16" s="9">
         <v>4.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="7">
+        <v>25</v>
+      </c>
+      <c r="F16" s="10">
         <v>4.0</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17">
-      <c r="C17" s="8">
+      <c r="C17" s="11">
         <v>3.0</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="12">
         <v>3.0</v>
       </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18">
-      <c r="C18" s="10">
+      <c r="C18" s="13">
         <v>2.0</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="14">
         <v>2.0</v>
       </c>
+      <c r="I18" s="2"/>
     </row>
     <row r="19">
-      <c r="C19" s="6">
+      <c r="C19" s="9">
         <v>1.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="16">
+        <v>26</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="23">
         <v>1.0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="10">
+      <c r="C20" s="13">
         <v>0.0</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="24">
         <v>0.0</v>
       </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21">
       <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="14">
+        <v>37</v>
+      </c>
+      <c r="C22" s="20">
         <v>7.0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="15">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="21">
         <v>7.0</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23">
-      <c r="C23" s="14">
+      <c r="C23" s="20">
         <v>6.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="15">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="21">
         <v>6.0</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24">
-      <c r="C24" s="14">
+      <c r="C24" s="20">
         <v>5.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="15">
+        <v>25</v>
+      </c>
+      <c r="F24" s="21">
         <v>5.0</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="2"/>
     </row>
     <row r="25">
-      <c r="C25" s="14">
+      <c r="C25" s="20">
         <v>4.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="15">
+        <v>42</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="21">
         <v>4.0</v>
       </c>
+      <c r="G25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="2"/>
     </row>
     <row r="26">
-      <c r="C26" s="14">
+      <c r="C26" s="20">
         <v>3.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="15">
+        <v>25</v>
+      </c>
+      <c r="F26" s="21">
         <v>3.0</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="2"/>
     </row>
     <row r="27">
-      <c r="C27" s="6">
+      <c r="C27" s="9">
         <v>2.0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="7">
+        <v>44</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="10">
         <v>2.0</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="2"/>
     </row>
     <row r="28">
-      <c r="C28" s="8">
+      <c r="C28" s="11">
         <v>1.0</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="12">
         <v>1.0</v>
       </c>
+      <c r="I28" s="2"/>
     </row>
     <row r="29">
-      <c r="C29" s="10">
+      <c r="C29" s="13">
         <v>0.0</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="14">
         <v>0.0</v>
       </c>
+      <c r="I29" s="2"/>
     </row>
     <row r="30">
       <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2"/>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2"/>
     </row>
     <row r="32">
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="F32" s="4" t="s">
-        <v>3</v>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I32" s="2"/>
     </row>
     <row r="33">
       <c r="C33" s="2"/>
       <c r="F33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34">
       <c r="C34" s="2"/>
       <c r="F34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35">
       <c r="C35" s="2"/>
       <c r="F35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36">
       <c r="C36" s="2"/>
       <c r="F36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37">
       <c r="C37" s="2"/>
       <c r="F37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38">
       <c r="C38" s="2"/>
       <c r="F38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39">
       <c r="C39" s="2"/>
       <c r="F39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40">
       <c r="C40" s="2"/>
       <c r="F40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41">
       <c r="C41" s="2"/>
       <c r="F41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42">
       <c r="C42" s="2"/>
       <c r="F42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43">
       <c r="C43" s="2"/>
       <c r="F43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44">
       <c r="C44" s="2"/>
       <c r="F44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45">
       <c r="C45" s="2"/>
       <c r="F45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46">
       <c r="C46" s="2"/>
       <c r="F46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47">
       <c r="C47" s="2"/>
       <c r="F47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48">
       <c r="C48" s="2"/>
       <c r="F48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49">
       <c r="C49" s="2"/>
       <c r="F49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50">
       <c r="C50" s="2"/>
       <c r="F50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51">
       <c r="C51" s="2"/>
       <c r="F51" s="2"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52">
       <c r="C52" s="2"/>
       <c r="F52" s="2"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53">
       <c r="C53" s="2"/>
       <c r="F53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54">
       <c r="C54" s="2"/>
       <c r="F54" s="2"/>
+      <c r="I54" s="2"/>
     </row>
     <row r="55">
       <c r="C55" s="2"/>
       <c r="F55" s="2"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56">
       <c r="C56" s="2"/>
       <c r="F56" s="2"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57">
       <c r="C57" s="2"/>
       <c r="F57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58">
       <c r="C58" s="2"/>
       <c r="F58" s="2"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59">
       <c r="C59" s="2"/>
       <c r="F59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60">
       <c r="C60" s="2"/>
       <c r="F60" s="2"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61">
       <c r="C61" s="2"/>
       <c r="F61" s="2"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62">
       <c r="C62" s="2"/>
       <c r="F62" s="2"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63">
       <c r="C63" s="2"/>
       <c r="F63" s="2"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="64">
       <c r="C64" s="2"/>
       <c r="F64" s="2"/>
+      <c r="I64" s="2"/>
     </row>
     <row r="65">
       <c r="C65" s="2"/>
       <c r="F65" s="2"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66">
       <c r="C66" s="2"/>
       <c r="F66" s="2"/>
+      <c r="I66" s="2"/>
     </row>
     <row r="67">
       <c r="C67" s="2"/>
       <c r="F67" s="2"/>
+      <c r="I67" s="2"/>
     </row>
     <row r="68">
       <c r="C68" s="2"/>
       <c r="F68" s="2"/>
+      <c r="I68" s="2"/>
     </row>
     <row r="69">
       <c r="C69" s="2"/>
       <c r="F69" s="2"/>
+      <c r="I69" s="2"/>
     </row>
     <row r="70">
       <c r="C70" s="2"/>
       <c r="F70" s="2"/>
+      <c r="I70" s="2"/>
     </row>
     <row r="71">
       <c r="C71" s="2"/>
       <c r="F71" s="2"/>
+      <c r="I71" s="2"/>
     </row>
     <row r="72">
       <c r="C72" s="2"/>
       <c r="F72" s="2"/>
+      <c r="I72" s="2"/>
     </row>
     <row r="73">
       <c r="C73" s="2"/>
       <c r="F73" s="2"/>
+      <c r="I73" s="2"/>
     </row>
     <row r="74">
       <c r="C74" s="2"/>
       <c r="F74" s="2"/>
+      <c r="I74" s="2"/>
     </row>
     <row r="75">
       <c r="C75" s="2"/>
       <c r="F75" s="2"/>
+      <c r="I75" s="2"/>
     </row>
     <row r="76">
       <c r="C76" s="2"/>
       <c r="F76" s="2"/>
+      <c r="I76" s="2"/>
     </row>
     <row r="77">
       <c r="C77" s="2"/>
       <c r="F77" s="2"/>
+      <c r="I77" s="2"/>
     </row>
     <row r="78">
       <c r="C78" s="2"/>
       <c r="F78" s="2"/>
+      <c r="I78" s="2"/>
     </row>
     <row r="79">
       <c r="C79" s="2"/>
       <c r="F79" s="2"/>
+      <c r="I79" s="2"/>
     </row>
     <row r="80">
       <c r="C80" s="2"/>
       <c r="F80" s="2"/>
+      <c r="I80" s="2"/>
     </row>
     <row r="81">
       <c r="C81" s="2"/>
       <c r="F81" s="2"/>
+      <c r="I81" s="2"/>
     </row>
     <row r="82">
       <c r="C82" s="2"/>
       <c r="F82" s="2"/>
+      <c r="I82" s="2"/>
     </row>
     <row r="83">
       <c r="C83" s="2"/>
       <c r="F83" s="2"/>
+      <c r="I83" s="2"/>
     </row>
     <row r="84">
       <c r="C84" s="2"/>
       <c r="F84" s="2"/>
+      <c r="I84" s="2"/>
     </row>
     <row r="85">
       <c r="C85" s="2"/>
       <c r="F85" s="2"/>
+      <c r="I85" s="2"/>
     </row>
     <row r="86">
       <c r="C86" s="2"/>
       <c r="F86" s="2"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="87">
       <c r="C87" s="2"/>
       <c r="F87" s="2"/>
+      <c r="I87" s="2"/>
     </row>
     <row r="88">
       <c r="C88" s="2"/>
       <c r="F88" s="2"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89">
       <c r="C89" s="2"/>
       <c r="F89" s="2"/>
+      <c r="I89" s="2"/>
     </row>
     <row r="90">
       <c r="C90" s="2"/>
       <c r="F90" s="2"/>
+      <c r="I90" s="2"/>
     </row>
     <row r="91">
       <c r="C91" s="2"/>
       <c r="F91" s="2"/>
+      <c r="I91" s="2"/>
     </row>
     <row r="92">
       <c r="C92" s="2"/>
       <c r="F92" s="2"/>
+      <c r="I92" s="2"/>
     </row>
     <row r="93">
       <c r="C93" s="2"/>
       <c r="F93" s="2"/>
+      <c r="I93" s="2"/>
     </row>
     <row r="94">
       <c r="C94" s="2"/>
       <c r="F94" s="2"/>
+      <c r="I94" s="2"/>
     </row>
     <row r="95">
       <c r="C95" s="2"/>
       <c r="F95" s="2"/>
+      <c r="I95" s="2"/>
     </row>
     <row r="96">
       <c r="C96" s="2"/>
       <c r="F96" s="2"/>
+      <c r="I96" s="2"/>
     </row>
     <row r="97">
       <c r="C97" s="2"/>
       <c r="F97" s="2"/>
+      <c r="I97" s="2"/>
     </row>
     <row r="98">
       <c r="C98" s="2"/>
       <c r="F98" s="2"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99">
       <c r="C99" s="2"/>
       <c r="F99" s="2"/>
+      <c r="I99" s="2"/>
     </row>
     <row r="100">
       <c r="C100" s="2"/>
       <c r="F100" s="2"/>
+      <c r="I100" s="2"/>
     </row>
     <row r="101">
       <c r="C101" s="2"/>
       <c r="F101" s="2"/>
+      <c r="I101" s="2"/>
     </row>
     <row r="102">
       <c r="C102" s="2"/>
       <c r="F102" s="2"/>
+      <c r="I102" s="2"/>
     </row>
     <row r="103">
       <c r="C103" s="2"/>
       <c r="F103" s="2"/>
+      <c r="I103" s="2"/>
     </row>
     <row r="104">
       <c r="C104" s="2"/>
       <c r="F104" s="2"/>
+      <c r="I104" s="2"/>
     </row>
     <row r="105">
       <c r="C105" s="2"/>
       <c r="F105" s="2"/>
+      <c r="I105" s="2"/>
     </row>
     <row r="106">
       <c r="C106" s="2"/>
       <c r="F106" s="2"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107">
       <c r="C107" s="2"/>
       <c r="F107" s="2"/>
+      <c r="I107" s="2"/>
     </row>
     <row r="108">
       <c r="C108" s="2"/>
       <c r="F108" s="2"/>
+      <c r="I108" s="2"/>
     </row>
     <row r="109">
       <c r="C109" s="2"/>
       <c r="F109" s="2"/>
+      <c r="I109" s="2"/>
     </row>
     <row r="110">
       <c r="C110" s="2"/>
       <c r="F110" s="2"/>
+      <c r="I110" s="2"/>
     </row>
     <row r="111">
       <c r="C111" s="2"/>
       <c r="F111" s="2"/>
+      <c r="I111" s="2"/>
     </row>
     <row r="112">
       <c r="C112" s="2"/>
       <c r="F112" s="2"/>
+      <c r="I112" s="2"/>
     </row>
     <row r="113">
       <c r="C113" s="2"/>
       <c r="F113" s="2"/>
+      <c r="I113" s="2"/>
     </row>
     <row r="114">
       <c r="C114" s="2"/>
       <c r="F114" s="2"/>
+      <c r="I114" s="2"/>
     </row>
     <row r="115">
       <c r="C115" s="2"/>
       <c r="F115" s="2"/>
+      <c r="I115" s="2"/>
     </row>
     <row r="116">
       <c r="C116" s="2"/>
       <c r="F116" s="2"/>
+      <c r="I116" s="2"/>
     </row>
     <row r="117">
       <c r="C117" s="2"/>
       <c r="F117" s="2"/>
+      <c r="I117" s="2"/>
     </row>
     <row r="118">
       <c r="C118" s="2"/>
       <c r="F118" s="2"/>
+      <c r="I118" s="2"/>
     </row>
     <row r="119">
       <c r="C119" s="2"/>
       <c r="F119" s="2"/>
+      <c r="I119" s="2"/>
     </row>
     <row r="120">
       <c r="C120" s="2"/>
       <c r="F120" s="2"/>
+      <c r="I120" s="2"/>
     </row>
     <row r="121">
       <c r="C121" s="2"/>
       <c r="F121" s="2"/>
+      <c r="I121" s="2"/>
     </row>
     <row r="122">
       <c r="C122" s="2"/>
       <c r="F122" s="2"/>
+      <c r="I122" s="2"/>
     </row>
     <row r="123">
       <c r="C123" s="2"/>
       <c r="F123" s="2"/>
+      <c r="I123" s="2"/>
     </row>
     <row r="124">
       <c r="C124" s="2"/>
       <c r="F124" s="2"/>
+      <c r="I124" s="2"/>
     </row>
     <row r="125">
       <c r="C125" s="2"/>
       <c r="F125" s="2"/>
+      <c r="I125" s="2"/>
     </row>
     <row r="126">
       <c r="C126" s="2"/>
       <c r="F126" s="2"/>
+      <c r="I126" s="2"/>
     </row>
     <row r="127">
       <c r="C127" s="2"/>
       <c r="F127" s="2"/>
+      <c r="I127" s="2"/>
     </row>
     <row r="128">
       <c r="C128" s="2"/>
       <c r="F128" s="2"/>
+      <c r="I128" s="2"/>
     </row>
     <row r="129">
       <c r="C129" s="2"/>
       <c r="F129" s="2"/>
+      <c r="I129" s="2"/>
     </row>
     <row r="130">
       <c r="C130" s="2"/>
       <c r="F130" s="2"/>
+      <c r="I130" s="2"/>
     </row>
     <row r="131">
       <c r="C131" s="2"/>
       <c r="F131" s="2"/>
+      <c r="I131" s="2"/>
     </row>
     <row r="132">
       <c r="C132" s="2"/>
       <c r="F132" s="2"/>
+      <c r="I132" s="2"/>
     </row>
     <row r="133">
       <c r="C133" s="2"/>
       <c r="F133" s="2"/>
+      <c r="I133" s="2"/>
     </row>
     <row r="134">
       <c r="C134" s="2"/>
       <c r="F134" s="2"/>
+      <c r="I134" s="2"/>
     </row>
     <row r="135">
       <c r="C135" s="2"/>
       <c r="F135" s="2"/>
+      <c r="I135" s="2"/>
     </row>
     <row r="136">
       <c r="C136" s="2"/>
       <c r="F136" s="2"/>
+      <c r="I136" s="2"/>
     </row>
     <row r="137">
       <c r="C137" s="2"/>
       <c r="F137" s="2"/>
+      <c r="I137" s="2"/>
     </row>
     <row r="138">
       <c r="C138" s="2"/>
       <c r="F138" s="2"/>
+      <c r="I138" s="2"/>
     </row>
     <row r="139">
       <c r="C139" s="2"/>
       <c r="F139" s="2"/>
+      <c r="I139" s="2"/>
     </row>
     <row r="140">
       <c r="C140" s="2"/>
       <c r="F140" s="2"/>
+      <c r="I140" s="2"/>
     </row>
     <row r="141">
       <c r="C141" s="2"/>
       <c r="F141" s="2"/>
+      <c r="I141" s="2"/>
     </row>
     <row r="142">
       <c r="C142" s="2"/>
       <c r="F142" s="2"/>
+      <c r="I142" s="2"/>
     </row>
     <row r="143">
       <c r="C143" s="2"/>
       <c r="F143" s="2"/>
+      <c r="I143" s="2"/>
     </row>
     <row r="144">
       <c r="C144" s="2"/>
       <c r="F144" s="2"/>
+      <c r="I144" s="2"/>
     </row>
     <row r="145">
       <c r="C145" s="2"/>
       <c r="F145" s="2"/>
+      <c r="I145" s="2"/>
     </row>
     <row r="146">
       <c r="C146" s="2"/>
       <c r="F146" s="2"/>
+      <c r="I146" s="2"/>
     </row>
     <row r="147">
       <c r="C147" s="2"/>
       <c r="F147" s="2"/>
+      <c r="I147" s="2"/>
     </row>
     <row r="148">
       <c r="C148" s="2"/>
       <c r="F148" s="2"/>
+      <c r="I148" s="2"/>
     </row>
     <row r="149">
       <c r="C149" s="2"/>
       <c r="F149" s="2"/>
+      <c r="I149" s="2"/>
     </row>
     <row r="150">
       <c r="C150" s="2"/>
       <c r="F150" s="2"/>
+      <c r="I150" s="2"/>
     </row>
     <row r="151">
       <c r="C151" s="2"/>
       <c r="F151" s="2"/>
+      <c r="I151" s="2"/>
     </row>
     <row r="152">
       <c r="C152" s="2"/>
       <c r="F152" s="2"/>
+      <c r="I152" s="2"/>
     </row>
     <row r="153">
       <c r="C153" s="2"/>
       <c r="F153" s="2"/>
+      <c r="I153" s="2"/>
     </row>
     <row r="154">
       <c r="C154" s="2"/>
       <c r="F154" s="2"/>
+      <c r="I154" s="2"/>
     </row>
     <row r="155">
       <c r="C155" s="2"/>
       <c r="F155" s="2"/>
+      <c r="I155" s="2"/>
     </row>
     <row r="156">
       <c r="C156" s="2"/>
       <c r="F156" s="2"/>
+      <c r="I156" s="2"/>
     </row>
     <row r="157">
       <c r="C157" s="2"/>
       <c r="F157" s="2"/>
+      <c r="I157" s="2"/>
     </row>
     <row r="158">
       <c r="C158" s="2"/>
       <c r="F158" s="2"/>
+      <c r="I158" s="2"/>
     </row>
     <row r="159">
       <c r="C159" s="2"/>
       <c r="F159" s="2"/>
+      <c r="I159" s="2"/>
     </row>
     <row r="160">
       <c r="C160" s="2"/>
       <c r="F160" s="2"/>
+      <c r="I160" s="2"/>
     </row>
     <row r="161">
       <c r="C161" s="2"/>
       <c r="F161" s="2"/>
+      <c r="I161" s="2"/>
     </row>
     <row r="162">
       <c r="C162" s="2"/>
       <c r="F162" s="2"/>
+      <c r="I162" s="2"/>
     </row>
     <row r="163">
       <c r="C163" s="2"/>
       <c r="F163" s="2"/>
+      <c r="I163" s="2"/>
     </row>
     <row r="164">
       <c r="C164" s="2"/>
       <c r="F164" s="2"/>
+      <c r="I164" s="2"/>
     </row>
     <row r="165">
       <c r="C165" s="2"/>
       <c r="F165" s="2"/>
+      <c r="I165" s="2"/>
     </row>
     <row r="166">
       <c r="C166" s="2"/>
       <c r="F166" s="2"/>
+      <c r="I166" s="2"/>
     </row>
     <row r="167">
       <c r="C167" s="2"/>
       <c r="F167" s="2"/>
+      <c r="I167" s="2"/>
     </row>
     <row r="168">
       <c r="C168" s="2"/>
       <c r="F168" s="2"/>
+      <c r="I168" s="2"/>
     </row>
     <row r="169">
       <c r="C169" s="2"/>
       <c r="F169" s="2"/>
+      <c r="I169" s="2"/>
     </row>
     <row r="170">
       <c r="C170" s="2"/>
       <c r="F170" s="2"/>
+      <c r="I170" s="2"/>
     </row>
     <row r="171">
       <c r="C171" s="2"/>
       <c r="F171" s="2"/>
+      <c r="I171" s="2"/>
     </row>
     <row r="172">
       <c r="C172" s="2"/>
       <c r="F172" s="2"/>
+      <c r="I172" s="2"/>
     </row>
     <row r="173">
       <c r="C173" s="2"/>
       <c r="F173" s="2"/>
+      <c r="I173" s="2"/>
     </row>
     <row r="174">
       <c r="C174" s="2"/>
       <c r="F174" s="2"/>
+      <c r="I174" s="2"/>
     </row>
     <row r="175">
       <c r="C175" s="2"/>
       <c r="F175" s="2"/>
+      <c r="I175" s="2"/>
     </row>
     <row r="176">
       <c r="C176" s="2"/>
       <c r="F176" s="2"/>
+      <c r="I176" s="2"/>
     </row>
     <row r="177">
       <c r="C177" s="2"/>
       <c r="F177" s="2"/>
+      <c r="I177" s="2"/>
     </row>
     <row r="178">
       <c r="C178" s="2"/>
       <c r="F178" s="2"/>
+      <c r="I178" s="2"/>
     </row>
     <row r="179">
       <c r="C179" s="2"/>
       <c r="F179" s="2"/>
+      <c r="I179" s="2"/>
     </row>
     <row r="180">
       <c r="C180" s="2"/>
       <c r="F180" s="2"/>
+      <c r="I180" s="2"/>
     </row>
     <row r="181">
       <c r="C181" s="2"/>
       <c r="F181" s="2"/>
+      <c r="I181" s="2"/>
     </row>
     <row r="182">
       <c r="C182" s="2"/>
       <c r="F182" s="2"/>
+      <c r="I182" s="2"/>
     </row>
     <row r="183">
       <c r="C183" s="2"/>
       <c r="F183" s="2"/>
+      <c r="I183" s="2"/>
     </row>
     <row r="184">
       <c r="C184" s="2"/>
       <c r="F184" s="2"/>
+      <c r="I184" s="2"/>
     </row>
     <row r="185">
       <c r="C185" s="2"/>
       <c r="F185" s="2"/>
+      <c r="I185" s="2"/>
     </row>
     <row r="186">
       <c r="C186" s="2"/>
       <c r="F186" s="2"/>
+      <c r="I186" s="2"/>
     </row>
     <row r="187">
       <c r="C187" s="2"/>
       <c r="F187" s="2"/>
+      <c r="I187" s="2"/>
     </row>
     <row r="188">
       <c r="C188" s="2"/>
       <c r="F188" s="2"/>
+      <c r="I188" s="2"/>
     </row>
     <row r="189">
       <c r="C189" s="2"/>
       <c r="F189" s="2"/>
+      <c r="I189" s="2"/>
     </row>
     <row r="190">
       <c r="C190" s="2"/>
       <c r="F190" s="2"/>
+      <c r="I190" s="2"/>
     </row>
     <row r="191">
       <c r="C191" s="2"/>
       <c r="F191" s="2"/>
+      <c r="I191" s="2"/>
     </row>
     <row r="192">
       <c r="C192" s="2"/>
       <c r="F192" s="2"/>
+      <c r="I192" s="2"/>
     </row>
     <row r="193">
       <c r="C193" s="2"/>
       <c r="F193" s="2"/>
+      <c r="I193" s="2"/>
     </row>
     <row r="194">
       <c r="C194" s="2"/>
       <c r="F194" s="2"/>
+      <c r="I194" s="2"/>
     </row>
     <row r="195">
       <c r="C195" s="2"/>
       <c r="F195" s="2"/>
+      <c r="I195" s="2"/>
     </row>
     <row r="196">
       <c r="C196" s="2"/>
       <c r="F196" s="2"/>
+      <c r="I196" s="2"/>
     </row>
     <row r="197">
       <c r="C197" s="2"/>
       <c r="F197" s="2"/>
+      <c r="I197" s="2"/>
     </row>
     <row r="198">
       <c r="C198" s="2"/>
       <c r="F198" s="2"/>
+      <c r="I198" s="2"/>
     </row>
     <row r="199">
       <c r="C199" s="2"/>
       <c r="F199" s="2"/>
+      <c r="I199" s="2"/>
     </row>
     <row r="200">
       <c r="C200" s="2"/>
       <c r="F200" s="2"/>
+      <c r="I200" s="2"/>
     </row>
     <row r="201">
       <c r="C201" s="2"/>
       <c r="F201" s="2"/>
+      <c r="I201" s="2"/>
     </row>
     <row r="202">
       <c r="C202" s="2"/>
       <c r="F202" s="2"/>
+      <c r="I202" s="2"/>
     </row>
     <row r="203">
       <c r="C203" s="2"/>
       <c r="F203" s="2"/>
+      <c r="I203" s="2"/>
     </row>
     <row r="204">
       <c r="C204" s="2"/>
       <c r="F204" s="2"/>
+      <c r="I204" s="2"/>
     </row>
     <row r="205">
       <c r="C205" s="2"/>
       <c r="F205" s="2"/>
+      <c r="I205" s="2"/>
     </row>
     <row r="206">
       <c r="C206" s="2"/>
       <c r="F206" s="2"/>
+      <c r="I206" s="2"/>
     </row>
     <row r="207">
       <c r="C207" s="2"/>
       <c r="F207" s="2"/>
+      <c r="I207" s="2"/>
     </row>
     <row r="208">
       <c r="C208" s="2"/>
       <c r="F208" s="2"/>
+      <c r="I208" s="2"/>
     </row>
     <row r="209">
       <c r="C209" s="2"/>
       <c r="F209" s="2"/>
+      <c r="I209" s="2"/>
     </row>
     <row r="210">
       <c r="C210" s="2"/>
       <c r="F210" s="2"/>
+      <c r="I210" s="2"/>
     </row>
     <row r="211">
       <c r="C211" s="2"/>
       <c r="F211" s="2"/>
+      <c r="I211" s="2"/>
     </row>
     <row r="212">
       <c r="C212" s="2"/>
       <c r="F212" s="2"/>
+      <c r="I212" s="2"/>
     </row>
     <row r="213">
       <c r="C213" s="2"/>
       <c r="F213" s="2"/>
+      <c r="I213" s="2"/>
     </row>
     <row r="214">
       <c r="C214" s="2"/>
       <c r="F214" s="2"/>
+      <c r="I214" s="2"/>
     </row>
     <row r="215">
       <c r="C215" s="2"/>
       <c r="F215" s="2"/>
+      <c r="I215" s="2"/>
     </row>
     <row r="216">
       <c r="C216" s="2"/>
       <c r="F216" s="2"/>
+      <c r="I216" s="2"/>
     </row>
     <row r="217">
       <c r="C217" s="2"/>
       <c r="F217" s="2"/>
+      <c r="I217" s="2"/>
     </row>
     <row r="218">
       <c r="C218" s="2"/>
       <c r="F218" s="2"/>
+      <c r="I218" s="2"/>
     </row>
     <row r="219">
       <c r="C219" s="2"/>
       <c r="F219" s="2"/>
+      <c r="I219" s="2"/>
     </row>
     <row r="220">
       <c r="C220" s="2"/>
       <c r="F220" s="2"/>
+      <c r="I220" s="2"/>
     </row>
     <row r="221">
       <c r="C221" s="2"/>
       <c r="F221" s="2"/>
+      <c r="I221" s="2"/>
     </row>
     <row r="222">
       <c r="C222" s="2"/>
       <c r="F222" s="2"/>
+      <c r="I222" s="2"/>
     </row>
     <row r="223">
       <c r="C223" s="2"/>
       <c r="F223" s="2"/>
+      <c r="I223" s="2"/>
     </row>
     <row r="224">
       <c r="C224" s="2"/>
       <c r="F224" s="2"/>
+      <c r="I224" s="2"/>
     </row>
     <row r="225">
       <c r="C225" s="2"/>
       <c r="F225" s="2"/>
+      <c r="I225" s="2"/>
     </row>
     <row r="226">
       <c r="C226" s="2"/>
       <c r="F226" s="2"/>
+      <c r="I226" s="2"/>
     </row>
     <row r="227">
       <c r="C227" s="2"/>
       <c r="F227" s="2"/>
+      <c r="I227" s="2"/>
     </row>
     <row r="228">
       <c r="C228" s="2"/>
       <c r="F228" s="2"/>
+      <c r="I228" s="2"/>
     </row>
     <row r="229">
       <c r="C229" s="2"/>
       <c r="F229" s="2"/>
+      <c r="I229" s="2"/>
     </row>
     <row r="230">
       <c r="C230" s="2"/>
       <c r="F230" s="2"/>
+      <c r="I230" s="2"/>
     </row>
     <row r="231">
       <c r="C231" s="2"/>
       <c r="F231" s="2"/>
+      <c r="I231" s="2"/>
     </row>
     <row r="232">
       <c r="C232" s="2"/>
       <c r="F232" s="2"/>
+      <c r="I232" s="2"/>
     </row>
     <row r="233">
       <c r="C233" s="2"/>
       <c r="F233" s="2"/>
+      <c r="I233" s="2"/>
     </row>
     <row r="234">
       <c r="C234" s="2"/>
       <c r="F234" s="2"/>
+      <c r="I234" s="2"/>
     </row>
     <row r="235">
       <c r="C235" s="2"/>
       <c r="F235" s="2"/>
+      <c r="I235" s="2"/>
     </row>
     <row r="236">
       <c r="C236" s="2"/>
       <c r="F236" s="2"/>
+      <c r="I236" s="2"/>
     </row>
     <row r="237">
       <c r="C237" s="2"/>
       <c r="F237" s="2"/>
+      <c r="I237" s="2"/>
     </row>
     <row r="238">
       <c r="C238" s="2"/>
       <c r="F238" s="2"/>
+      <c r="I238" s="2"/>
     </row>
     <row r="239">
       <c r="C239" s="2"/>
       <c r="F239" s="2"/>
+      <c r="I239" s="2"/>
     </row>
     <row r="240">
       <c r="C240" s="2"/>
       <c r="F240" s="2"/>
+      <c r="I240" s="2"/>
     </row>
     <row r="241">
       <c r="C241" s="2"/>
       <c r="F241" s="2"/>
+      <c r="I241" s="2"/>
     </row>
     <row r="242">
       <c r="C242" s="2"/>
       <c r="F242" s="2"/>
+      <c r="I242" s="2"/>
     </row>
     <row r="243">
       <c r="C243" s="2"/>
       <c r="F243" s="2"/>
+      <c r="I243" s="2"/>
     </row>
     <row r="244">
       <c r="C244" s="2"/>
       <c r="F244" s="2"/>
+      <c r="I244" s="2"/>
     </row>
     <row r="245">
       <c r="C245" s="2"/>
       <c r="F245" s="2"/>
+      <c r="I245" s="2"/>
     </row>
     <row r="246">
       <c r="C246" s="2"/>
       <c r="F246" s="2"/>
+      <c r="I246" s="2"/>
     </row>
     <row r="247">
       <c r="C247" s="2"/>
       <c r="F247" s="2"/>
+      <c r="I247" s="2"/>
     </row>
     <row r="248">
       <c r="C248" s="2"/>
       <c r="F248" s="2"/>
+      <c r="I248" s="2"/>
     </row>
     <row r="249">
       <c r="C249" s="2"/>
       <c r="F249" s="2"/>
+      <c r="I249" s="2"/>
     </row>
     <row r="250">
       <c r="C250" s="2"/>
       <c r="F250" s="2"/>
+      <c r="I250" s="2"/>
     </row>
     <row r="251">
       <c r="C251" s="2"/>
       <c r="F251" s="2"/>
+      <c r="I251" s="2"/>
     </row>
     <row r="252">
       <c r="C252" s="2"/>
       <c r="F252" s="2"/>
+      <c r="I252" s="2"/>
     </row>
     <row r="253">
       <c r="C253" s="2"/>
       <c r="F253" s="2"/>
+      <c r="I253" s="2"/>
     </row>
     <row r="254">
       <c r="C254" s="2"/>
       <c r="F254" s="2"/>
+      <c r="I254" s="2"/>
     </row>
     <row r="255">
       <c r="C255" s="2"/>
       <c r="F255" s="2"/>
+      <c r="I255" s="2"/>
     </row>
     <row r="256">
       <c r="C256" s="2"/>
       <c r="F256" s="2"/>
+      <c r="I256" s="2"/>
     </row>
     <row r="257">
       <c r="C257" s="2"/>
       <c r="F257" s="2"/>
+      <c r="I257" s="2"/>
     </row>
     <row r="258">
       <c r="C258" s="2"/>
       <c r="F258" s="2"/>
+      <c r="I258" s="2"/>
     </row>
     <row r="259">
       <c r="C259" s="2"/>
       <c r="F259" s="2"/>
+      <c r="I259" s="2"/>
     </row>
     <row r="260">
       <c r="C260" s="2"/>
       <c r="F260" s="2"/>
+      <c r="I260" s="2"/>
     </row>
     <row r="261">
       <c r="C261" s="2"/>
       <c r="F261" s="2"/>
+      <c r="I261" s="2"/>
     </row>
     <row r="262">
       <c r="C262" s="2"/>
       <c r="F262" s="2"/>
+      <c r="I262" s="2"/>
     </row>
     <row r="263">
       <c r="C263" s="2"/>
       <c r="F263" s="2"/>
+      <c r="I263" s="2"/>
     </row>
     <row r="264">
       <c r="C264" s="2"/>
       <c r="F264" s="2"/>
+      <c r="I264" s="2"/>
     </row>
     <row r="265">
       <c r="C265" s="2"/>
       <c r="F265" s="2"/>
+      <c r="I265" s="2"/>
     </row>
     <row r="266">
       <c r="C266" s="2"/>
       <c r="F266" s="2"/>
+      <c r="I266" s="2"/>
     </row>
     <row r="267">
       <c r="C267" s="2"/>
       <c r="F267" s="2"/>
+      <c r="I267" s="2"/>
     </row>
     <row r="268">
       <c r="C268" s="2"/>
       <c r="F268" s="2"/>
+      <c r="I268" s="2"/>
     </row>
     <row r="269">
       <c r="C269" s="2"/>
       <c r="F269" s="2"/>
+      <c r="I269" s="2"/>
     </row>
     <row r="270">
       <c r="C270" s="2"/>
       <c r="F270" s="2"/>
+      <c r="I270" s="2"/>
     </row>
     <row r="271">
       <c r="C271" s="2"/>
       <c r="F271" s="2"/>
+      <c r="I271" s="2"/>
     </row>
     <row r="272">
       <c r="C272" s="2"/>
       <c r="F272" s="2"/>
+      <c r="I272" s="2"/>
     </row>
     <row r="273">
       <c r="C273" s="2"/>
       <c r="F273" s="2"/>
+      <c r="I273" s="2"/>
     </row>
     <row r="274">
       <c r="C274" s="2"/>
       <c r="F274" s="2"/>
+      <c r="I274" s="2"/>
     </row>
     <row r="275">
       <c r="C275" s="2"/>
       <c r="F275" s="2"/>
+      <c r="I275" s="2"/>
     </row>
     <row r="276">
       <c r="C276" s="2"/>
       <c r="F276" s="2"/>
+      <c r="I276" s="2"/>
     </row>
     <row r="277">
       <c r="C277" s="2"/>
       <c r="F277" s="2"/>
+      <c r="I277" s="2"/>
     </row>
     <row r="278">
       <c r="C278" s="2"/>
       <c r="F278" s="2"/>
+      <c r="I278" s="2"/>
     </row>
     <row r="279">
       <c r="C279" s="2"/>
       <c r="F279" s="2"/>
+      <c r="I279" s="2"/>
     </row>
     <row r="280">
       <c r="C280" s="2"/>
       <c r="F280" s="2"/>
+      <c r="I280" s="2"/>
     </row>
     <row r="281">
       <c r="C281" s="2"/>
       <c r="F281" s="2"/>
+      <c r="I281" s="2"/>
     </row>
     <row r="282">
       <c r="C282" s="2"/>
       <c r="F282" s="2"/>
+      <c r="I282" s="2"/>
     </row>
     <row r="283">
       <c r="C283" s="2"/>
       <c r="F283" s="2"/>
+      <c r="I283" s="2"/>
     </row>
     <row r="284">
       <c r="C284" s="2"/>
       <c r="F284" s="2"/>
+      <c r="I284" s="2"/>
     </row>
     <row r="285">
       <c r="C285" s="2"/>
       <c r="F285" s="2"/>
+      <c r="I285" s="2"/>
     </row>
     <row r="286">
       <c r="C286" s="2"/>
       <c r="F286" s="2"/>
+      <c r="I286" s="2"/>
     </row>
     <row r="287">
       <c r="C287" s="2"/>
       <c r="F287" s="2"/>
+      <c r="I287" s="2"/>
     </row>
     <row r="288">
       <c r="C288" s="2"/>
       <c r="F288" s="2"/>
+      <c r="I288" s="2"/>
     </row>
     <row r="289">
       <c r="C289" s="2"/>
       <c r="F289" s="2"/>
+      <c r="I289" s="2"/>
     </row>
     <row r="290">
       <c r="C290" s="2"/>
       <c r="F290" s="2"/>
+      <c r="I290" s="2"/>
     </row>
     <row r="291">
       <c r="C291" s="2"/>
       <c r="F291" s="2"/>
+      <c r="I291" s="2"/>
     </row>
     <row r="292">
       <c r="C292" s="2"/>
       <c r="F292" s="2"/>
+      <c r="I292" s="2"/>
     </row>
     <row r="293">
       <c r="C293" s="2"/>
       <c r="F293" s="2"/>
+      <c r="I293" s="2"/>
     </row>
     <row r="294">
       <c r="C294" s="2"/>
       <c r="F294" s="2"/>
+      <c r="I294" s="2"/>
     </row>
     <row r="295">
       <c r="C295" s="2"/>
       <c r="F295" s="2"/>
+      <c r="I295" s="2"/>
     </row>
     <row r="296">
       <c r="C296" s="2"/>
       <c r="F296" s="2"/>
+      <c r="I296" s="2"/>
     </row>
     <row r="297">
       <c r="C297" s="2"/>
       <c r="F297" s="2"/>
+      <c r="I297" s="2"/>
     </row>
     <row r="298">
       <c r="C298" s="2"/>
       <c r="F298" s="2"/>
+      <c r="I298" s="2"/>
     </row>
     <row r="299">
       <c r="C299" s="2"/>
       <c r="F299" s="2"/>
+      <c r="I299" s="2"/>
     </row>
     <row r="300">
       <c r="C300" s="2"/>
       <c r="F300" s="2"/>
+      <c r="I300" s="2"/>
     </row>
     <row r="301">
       <c r="C301" s="2"/>
       <c r="F301" s="2"/>
+      <c r="I301" s="2"/>
     </row>
     <row r="302">
       <c r="C302" s="2"/>
       <c r="F302" s="2"/>
+      <c r="I302" s="2"/>
     </row>
     <row r="303">
       <c r="C303" s="2"/>
       <c r="F303" s="2"/>
+      <c r="I303" s="2"/>
     </row>
     <row r="304">
       <c r="C304" s="2"/>
       <c r="F304" s="2"/>
+      <c r="I304" s="2"/>
     </row>
     <row r="305">
       <c r="C305" s="2"/>
       <c r="F305" s="2"/>
+      <c r="I305" s="2"/>
     </row>
     <row r="306">
       <c r="C306" s="2"/>
       <c r="F306" s="2"/>
+      <c r="I306" s="2"/>
     </row>
     <row r="307">
       <c r="C307" s="2"/>
       <c r="F307" s="2"/>
+      <c r="I307" s="2"/>
     </row>
     <row r="308">
       <c r="C308" s="2"/>
       <c r="F308" s="2"/>
+      <c r="I308" s="2"/>
     </row>
     <row r="309">
       <c r="C309" s="2"/>
       <c r="F309" s="2"/>
+      <c r="I309" s="2"/>
     </row>
     <row r="310">
       <c r="C310" s="2"/>
       <c r="F310" s="2"/>
+      <c r="I310" s="2"/>
     </row>
     <row r="311">
       <c r="C311" s="2"/>
       <c r="F311" s="2"/>
+      <c r="I311" s="2"/>
     </row>
     <row r="312">
       <c r="C312" s="2"/>
       <c r="F312" s="2"/>
+      <c r="I312" s="2"/>
     </row>
     <row r="313">
       <c r="C313" s="2"/>
       <c r="F313" s="2"/>
+      <c r="I313" s="2"/>
     </row>
     <row r="314">
       <c r="C314" s="2"/>
       <c r="F314" s="2"/>
+      <c r="I314" s="2"/>
     </row>
     <row r="315">
       <c r="C315" s="2"/>
       <c r="F315" s="2"/>
+      <c r="I315" s="2"/>
     </row>
     <row r="316">
       <c r="C316" s="2"/>
       <c r="F316" s="2"/>
+      <c r="I316" s="2"/>
     </row>
     <row r="317">
       <c r="C317" s="2"/>
       <c r="F317" s="2"/>
+      <c r="I317" s="2"/>
     </row>
     <row r="318">
       <c r="C318" s="2"/>
       <c r="F318" s="2"/>
+      <c r="I318" s="2"/>
     </row>
     <row r="319">
       <c r="C319" s="2"/>
       <c r="F319" s="2"/>
+      <c r="I319" s="2"/>
     </row>
     <row r="320">
       <c r="C320" s="2"/>
       <c r="F320" s="2"/>
+      <c r="I320" s="2"/>
     </row>
     <row r="321">
       <c r="C321" s="2"/>
       <c r="F321" s="2"/>
+      <c r="I321" s="2"/>
     </row>
     <row r="322">
       <c r="C322" s="2"/>
       <c r="F322" s="2"/>
+      <c r="I322" s="2"/>
     </row>
     <row r="323">
       <c r="C323" s="2"/>
       <c r="F323" s="2"/>
+      <c r="I323" s="2"/>
     </row>
     <row r="324">
       <c r="C324" s="2"/>
       <c r="F324" s="2"/>
+      <c r="I324" s="2"/>
     </row>
     <row r="325">
       <c r="C325" s="2"/>
       <c r="F325" s="2"/>
+      <c r="I325" s="2"/>
     </row>
     <row r="326">
       <c r="C326" s="2"/>
       <c r="F326" s="2"/>
+      <c r="I326" s="2"/>
     </row>
     <row r="327">
       <c r="C327" s="2"/>
       <c r="F327" s="2"/>
+      <c r="I327" s="2"/>
     </row>
     <row r="328">
       <c r="C328" s="2"/>
       <c r="F328" s="2"/>
+      <c r="I328" s="2"/>
     </row>
     <row r="329">
       <c r="C329" s="2"/>
       <c r="F329" s="2"/>
+      <c r="I329" s="2"/>
     </row>
     <row r="330">
       <c r="C330" s="2"/>
       <c r="F330" s="2"/>
+      <c r="I330" s="2"/>
     </row>
     <row r="331">
       <c r="C331" s="2"/>
       <c r="F331" s="2"/>
+      <c r="I331" s="2"/>
     </row>
     <row r="332">
       <c r="C332" s="2"/>
       <c r="F332" s="2"/>
+      <c r="I332" s="2"/>
     </row>
     <row r="333">
       <c r="C333" s="2"/>
       <c r="F333" s="2"/>
+      <c r="I333" s="2"/>
     </row>
     <row r="334">
       <c r="C334" s="2"/>
       <c r="F334" s="2"/>
+      <c r="I334" s="2"/>
     </row>
     <row r="335">
       <c r="C335" s="2"/>
       <c r="F335" s="2"/>
+      <c r="I335" s="2"/>
     </row>
     <row r="336">
       <c r="C336" s="2"/>
       <c r="F336" s="2"/>
+      <c r="I336" s="2"/>
     </row>
     <row r="337">
       <c r="C337" s="2"/>
       <c r="F337" s="2"/>
+      <c r="I337" s="2"/>
     </row>
     <row r="338">
       <c r="C338" s="2"/>
       <c r="F338" s="2"/>
+      <c r="I338" s="2"/>
     </row>
     <row r="339">
       <c r="C339" s="2"/>
       <c r="F339" s="2"/>
+      <c r="I339" s="2"/>
     </row>
     <row r="340">
       <c r="C340" s="2"/>
       <c r="F340" s="2"/>
+      <c r="I340" s="2"/>
     </row>
     <row r="341">
       <c r="C341" s="2"/>
       <c r="F341" s="2"/>
+      <c r="I341" s="2"/>
     </row>
     <row r="342">
       <c r="C342" s="2"/>
       <c r="F342" s="2"/>
+      <c r="I342" s="2"/>
     </row>
     <row r="343">
       <c r="C343" s="2"/>
       <c r="F343" s="2"/>
+      <c r="I343" s="2"/>
     </row>
     <row r="344">
       <c r="C344" s="2"/>
       <c r="F344" s="2"/>
+      <c r="I344" s="2"/>
     </row>
     <row r="345">
       <c r="C345" s="2"/>
       <c r="F345" s="2"/>
+      <c r="I345" s="2"/>
     </row>
     <row r="346">
       <c r="C346" s="2"/>
       <c r="F346" s="2"/>
+      <c r="I346" s="2"/>
     </row>
     <row r="347">
       <c r="C347" s="2"/>
       <c r="F347" s="2"/>
+      <c r="I347" s="2"/>
     </row>
     <row r="348">
       <c r="C348" s="2"/>
       <c r="F348" s="2"/>
+      <c r="I348" s="2"/>
     </row>
     <row r="349">
       <c r="C349" s="2"/>
       <c r="F349" s="2"/>
+      <c r="I349" s="2"/>
     </row>
     <row r="350">
       <c r="C350" s="2"/>
       <c r="F350" s="2"/>
+      <c r="I350" s="2"/>
     </row>
     <row r="351">
       <c r="C351" s="2"/>
       <c r="F351" s="2"/>
+      <c r="I351" s="2"/>
     </row>
     <row r="352">
       <c r="C352" s="2"/>
       <c r="F352" s="2"/>
+      <c r="I352" s="2"/>
     </row>
     <row r="353">
       <c r="C353" s="2"/>
       <c r="F353" s="2"/>
+      <c r="I353" s="2"/>
     </row>
     <row r="354">
       <c r="C354" s="2"/>
       <c r="F354" s="2"/>
+      <c r="I354" s="2"/>
     </row>
     <row r="355">
       <c r="C355" s="2"/>
       <c r="F355" s="2"/>
+      <c r="I355" s="2"/>
     </row>
     <row r="356">
       <c r="C356" s="2"/>
       <c r="F356" s="2"/>
+      <c r="I356" s="2"/>
     </row>
     <row r="357">
       <c r="C357" s="2"/>
       <c r="F357" s="2"/>
+      <c r="I357" s="2"/>
     </row>
     <row r="358">
       <c r="C358" s="2"/>
       <c r="F358" s="2"/>
+      <c r="I358" s="2"/>
     </row>
     <row r="359">
       <c r="C359" s="2"/>
       <c r="F359" s="2"/>
+      <c r="I359" s="2"/>
     </row>
     <row r="360">
       <c r="C360" s="2"/>
       <c r="F360" s="2"/>
+      <c r="I360" s="2"/>
     </row>
     <row r="361">
       <c r="C361" s="2"/>
       <c r="F361" s="2"/>
+      <c r="I361" s="2"/>
     </row>
     <row r="362">
       <c r="C362" s="2"/>
       <c r="F362" s="2"/>
+      <c r="I362" s="2"/>
     </row>
     <row r="363">
       <c r="C363" s="2"/>
       <c r="F363" s="2"/>
+      <c r="I363" s="2"/>
     </row>
     <row r="364">
       <c r="C364" s="2"/>
       <c r="F364" s="2"/>
+      <c r="I364" s="2"/>
     </row>
     <row r="365">
       <c r="C365" s="2"/>
       <c r="F365" s="2"/>
+      <c r="I365" s="2"/>
     </row>
     <row r="366">
       <c r="C366" s="2"/>
       <c r="F366" s="2"/>
+      <c r="I366" s="2"/>
     </row>
     <row r="367">
       <c r="C367" s="2"/>
       <c r="F367" s="2"/>
+      <c r="I367" s="2"/>
     </row>
     <row r="368">
       <c r="C368" s="2"/>
       <c r="F368" s="2"/>
+      <c r="I368" s="2"/>
     </row>
     <row r="369">
       <c r="C369" s="2"/>
       <c r="F369" s="2"/>
+      <c r="I369" s="2"/>
     </row>
     <row r="370">
       <c r="C370" s="2"/>
       <c r="F370" s="2"/>
+      <c r="I370" s="2"/>
     </row>
     <row r="371">
       <c r="C371" s="2"/>
       <c r="F371" s="2"/>
+      <c r="I371" s="2"/>
     </row>
     <row r="372">
       <c r="C372" s="2"/>
       <c r="F372" s="2"/>
+      <c r="I372" s="2"/>
     </row>
     <row r="373">
       <c r="C373" s="2"/>
       <c r="F373" s="2"/>
+      <c r="I373" s="2"/>
     </row>
     <row r="374">
       <c r="C374" s="2"/>
       <c r="F374" s="2"/>
+      <c r="I374" s="2"/>
     </row>
     <row r="375">
       <c r="C375" s="2"/>
       <c r="F375" s="2"/>
+      <c r="I375" s="2"/>
     </row>
     <row r="376">
       <c r="C376" s="2"/>
       <c r="F376" s="2"/>
+      <c r="I376" s="2"/>
     </row>
     <row r="377">
       <c r="C377" s="2"/>
       <c r="F377" s="2"/>
+      <c r="I377" s="2"/>
     </row>
     <row r="378">
       <c r="C378" s="2"/>
       <c r="F378" s="2"/>
+      <c r="I378" s="2"/>
     </row>
     <row r="379">
       <c r="C379" s="2"/>
       <c r="F379" s="2"/>
+      <c r="I379" s="2"/>
     </row>
     <row r="380">
       <c r="C380" s="2"/>
       <c r="F380" s="2"/>
+      <c r="I380" s="2"/>
     </row>
     <row r="381">
       <c r="C381" s="2"/>
       <c r="F381" s="2"/>
+      <c r="I381" s="2"/>
     </row>
     <row r="382">
       <c r="C382" s="2"/>
       <c r="F382" s="2"/>
+      <c r="I382" s="2"/>
     </row>
     <row r="383">
       <c r="C383" s="2"/>
       <c r="F383" s="2"/>
+      <c r="I383" s="2"/>
     </row>
     <row r="384">
       <c r="C384" s="2"/>
       <c r="F384" s="2"/>
+      <c r="I384" s="2"/>
     </row>
     <row r="385">
       <c r="C385" s="2"/>
       <c r="F385" s="2"/>
+      <c r="I385" s="2"/>
     </row>
     <row r="386">
       <c r="C386" s="2"/>
       <c r="F386" s="2"/>
+      <c r="I386" s="2"/>
     </row>
     <row r="387">
       <c r="C387" s="2"/>
       <c r="F387" s="2"/>
+      <c r="I387" s="2"/>
     </row>
     <row r="388">
       <c r="C388" s="2"/>
       <c r="F388" s="2"/>
+      <c r="I388" s="2"/>
     </row>
     <row r="389">
       <c r="C389" s="2"/>
       <c r="F389" s="2"/>
+      <c r="I389" s="2"/>
     </row>
     <row r="390">
       <c r="C390" s="2"/>
       <c r="F390" s="2"/>
+      <c r="I390" s="2"/>
     </row>
     <row r="391">
       <c r="C391" s="2"/>
       <c r="F391" s="2"/>
+      <c r="I391" s="2"/>
     </row>
     <row r="392">
       <c r="C392" s="2"/>
       <c r="F392" s="2"/>
+      <c r="I392" s="2"/>
     </row>
     <row r="393">
       <c r="C393" s="2"/>
       <c r="F393" s="2"/>
+      <c r="I393" s="2"/>
     </row>
     <row r="394">
       <c r="C394" s="2"/>
       <c r="F394" s="2"/>
+      <c r="I394" s="2"/>
     </row>
     <row r="395">
       <c r="C395" s="2"/>
       <c r="F395" s="2"/>
+      <c r="I395" s="2"/>
     </row>
     <row r="396">
       <c r="C396" s="2"/>
       <c r="F396" s="2"/>
+      <c r="I396" s="2"/>
     </row>
     <row r="397">
       <c r="C397" s="2"/>
       <c r="F397" s="2"/>
+      <c r="I397" s="2"/>
     </row>
     <row r="398">
       <c r="C398" s="2"/>
       <c r="F398" s="2"/>
+      <c r="I398" s="2"/>
     </row>
     <row r="399">
       <c r="C399" s="2"/>
       <c r="F399" s="2"/>
+      <c r="I399" s="2"/>
     </row>
     <row r="400">
       <c r="C400" s="2"/>
       <c r="F400" s="2"/>
+      <c r="I400" s="2"/>
     </row>
     <row r="401">
       <c r="C401" s="2"/>
       <c r="F401" s="2"/>
+      <c r="I401" s="2"/>
     </row>
     <row r="402">
       <c r="C402" s="2"/>
       <c r="F402" s="2"/>
+      <c r="I402" s="2"/>
     </row>
     <row r="403">
       <c r="C403" s="2"/>
       <c r="F403" s="2"/>
+      <c r="I403" s="2"/>
     </row>
     <row r="404">
       <c r="C404" s="2"/>
       <c r="F404" s="2"/>
+      <c r="I404" s="2"/>
     </row>
     <row r="405">
       <c r="C405" s="2"/>
       <c r="F405" s="2"/>
+      <c r="I405" s="2"/>
     </row>
     <row r="406">
       <c r="C406" s="2"/>
       <c r="F406" s="2"/>
+      <c r="I406" s="2"/>
     </row>
     <row r="407">
       <c r="C407" s="2"/>
       <c r="F407" s="2"/>
+      <c r="I407" s="2"/>
     </row>
     <row r="408">
       <c r="C408" s="2"/>
       <c r="F408" s="2"/>
+      <c r="I408" s="2"/>
     </row>
     <row r="409">
       <c r="C409" s="2"/>
       <c r="F409" s="2"/>
+      <c r="I409" s="2"/>
     </row>
     <row r="410">
       <c r="C410" s="2"/>
       <c r="F410" s="2"/>
+      <c r="I410" s="2"/>
     </row>
     <row r="411">
       <c r="C411" s="2"/>
       <c r="F411" s="2"/>
+      <c r="I411" s="2"/>
     </row>
     <row r="412">
       <c r="C412" s="2"/>
       <c r="F412" s="2"/>
+      <c r="I412" s="2"/>
     </row>
     <row r="413">
       <c r="C413" s="2"/>
       <c r="F413" s="2"/>
+      <c r="I413" s="2"/>
     </row>
     <row r="414">
       <c r="C414" s="2"/>
       <c r="F414" s="2"/>
+      <c r="I414" s="2"/>
     </row>
     <row r="415">
       <c r="C415" s="2"/>
       <c r="F415" s="2"/>
+      <c r="I415" s="2"/>
     </row>
     <row r="416">
       <c r="C416" s="2"/>
       <c r="F416" s="2"/>
+      <c r="I416" s="2"/>
     </row>
     <row r="417">
       <c r="C417" s="2"/>
       <c r="F417" s="2"/>
+      <c r="I417" s="2"/>
     </row>
     <row r="418">
       <c r="C418" s="2"/>
       <c r="F418" s="2"/>
+      <c r="I418" s="2"/>
     </row>
     <row r="419">
       <c r="C419" s="2"/>
       <c r="F419" s="2"/>
+      <c r="I419" s="2"/>
     </row>
     <row r="420">
       <c r="C420" s="2"/>
       <c r="F420" s="2"/>
+      <c r="I420" s="2"/>
     </row>
     <row r="421">
       <c r="C421" s="2"/>
       <c r="F421" s="2"/>
+      <c r="I421" s="2"/>
     </row>
     <row r="422">
       <c r="C422" s="2"/>
       <c r="F422" s="2"/>
+      <c r="I422" s="2"/>
     </row>
     <row r="423">
       <c r="C423" s="2"/>
       <c r="F423" s="2"/>
+      <c r="I423" s="2"/>
     </row>
     <row r="424">
       <c r="C424" s="2"/>
       <c r="F424" s="2"/>
+      <c r="I424" s="2"/>
     </row>
     <row r="425">
       <c r="C425" s="2"/>
       <c r="F425" s="2"/>
+      <c r="I425" s="2"/>
     </row>
     <row r="426">
       <c r="C426" s="2"/>
       <c r="F426" s="2"/>
+      <c r="I426" s="2"/>
     </row>
     <row r="427">
       <c r="C427" s="2"/>
       <c r="F427" s="2"/>
+      <c r="I427" s="2"/>
     </row>
     <row r="428">
       <c r="C428" s="2"/>
       <c r="F428" s="2"/>
+      <c r="I428" s="2"/>
     </row>
     <row r="429">
       <c r="C429" s="2"/>
       <c r="F429" s="2"/>
+      <c r="I429" s="2"/>
     </row>
     <row r="430">
       <c r="C430" s="2"/>
       <c r="F430" s="2"/>
+      <c r="I430" s="2"/>
     </row>
     <row r="431">
       <c r="C431" s="2"/>
       <c r="F431" s="2"/>
+      <c r="I431" s="2"/>
     </row>
     <row r="432">
       <c r="C432" s="2"/>
       <c r="F432" s="2"/>
+      <c r="I432" s="2"/>
     </row>
     <row r="433">
       <c r="C433" s="2"/>
       <c r="F433" s="2"/>
+      <c r="I433" s="2"/>
     </row>
     <row r="434">
       <c r="C434" s="2"/>
       <c r="F434" s="2"/>
+      <c r="I434" s="2"/>
     </row>
     <row r="435">
       <c r="C435" s="2"/>
       <c r="F435" s="2"/>
+      <c r="I435" s="2"/>
     </row>
     <row r="436">
       <c r="C436" s="2"/>
       <c r="F436" s="2"/>
+      <c r="I436" s="2"/>
     </row>
     <row r="437">
       <c r="C437" s="2"/>
       <c r="F437" s="2"/>
+      <c r="I437" s="2"/>
     </row>
     <row r="438">
       <c r="C438" s="2"/>
       <c r="F438" s="2"/>
+      <c r="I438" s="2"/>
     </row>
     <row r="439">
       <c r="C439" s="2"/>
       <c r="F439" s="2"/>
+      <c r="I439" s="2"/>
     </row>
     <row r="440">
       <c r="C440" s="2"/>
       <c r="F440" s="2"/>
+      <c r="I440" s="2"/>
     </row>
     <row r="441">
       <c r="C441" s="2"/>
       <c r="F441" s="2"/>
+      <c r="I441" s="2"/>
     </row>
     <row r="442">
       <c r="C442" s="2"/>
       <c r="F442" s="2"/>
+      <c r="I442" s="2"/>
     </row>
     <row r="443">
       <c r="C443" s="2"/>
       <c r="F443" s="2"/>
+      <c r="I443" s="2"/>
     </row>
     <row r="444">
       <c r="C444" s="2"/>
       <c r="F444" s="2"/>
+      <c r="I444" s="2"/>
     </row>
     <row r="445">
       <c r="C445" s="2"/>
       <c r="F445" s="2"/>
+      <c r="I445" s="2"/>
     </row>
     <row r="446">
       <c r="C446" s="2"/>
       <c r="F446" s="2"/>
+      <c r="I446" s="2"/>
     </row>
     <row r="447">
       <c r="C447" s="2"/>
       <c r="F447" s="2"/>
+      <c r="I447" s="2"/>
     </row>
     <row r="448">
       <c r="C448" s="2"/>
       <c r="F448" s="2"/>
+      <c r="I448" s="2"/>
     </row>
     <row r="449">
       <c r="C449" s="2"/>
       <c r="F449" s="2"/>
+      <c r="I449" s="2"/>
     </row>
     <row r="450">
       <c r="C450" s="2"/>
       <c r="F450" s="2"/>
+      <c r="I450" s="2"/>
     </row>
     <row r="451">
       <c r="C451" s="2"/>
       <c r="F451" s="2"/>
+      <c r="I451" s="2"/>
     </row>
     <row r="452">
       <c r="C452" s="2"/>
       <c r="F452" s="2"/>
+      <c r="I452" s="2"/>
     </row>
     <row r="453">
       <c r="C453" s="2"/>
       <c r="F453" s="2"/>
+      <c r="I453" s="2"/>
     </row>
     <row r="454">
       <c r="C454" s="2"/>
       <c r="F454" s="2"/>
+      <c r="I454" s="2"/>
     </row>
     <row r="455">
       <c r="C455" s="2"/>
       <c r="F455" s="2"/>
+      <c r="I455" s="2"/>
     </row>
     <row r="456">
       <c r="C456" s="2"/>
       <c r="F456" s="2"/>
+      <c r="I456" s="2"/>
     </row>
     <row r="457">
       <c r="C457" s="2"/>
       <c r="F457" s="2"/>
+      <c r="I457" s="2"/>
     </row>
     <row r="458">
       <c r="C458" s="2"/>
       <c r="F458" s="2"/>
+      <c r="I458" s="2"/>
     </row>
     <row r="459">
       <c r="C459" s="2"/>
       <c r="F459" s="2"/>
+      <c r="I459" s="2"/>
     </row>
     <row r="460">
       <c r="C460" s="2"/>
       <c r="F460" s="2"/>
+      <c r="I460" s="2"/>
     </row>
     <row r="461">
       <c r="C461" s="2"/>
       <c r="F461" s="2"/>
+      <c r="I461" s="2"/>
     </row>
     <row r="462">
       <c r="C462" s="2"/>
       <c r="F462" s="2"/>
+      <c r="I462" s="2"/>
     </row>
     <row r="463">
       <c r="C463" s="2"/>
       <c r="F463" s="2"/>
+      <c r="I463" s="2"/>
     </row>
     <row r="464">
       <c r="C464" s="2"/>
       <c r="F464" s="2"/>
+      <c r="I464" s="2"/>
     </row>
     <row r="465">
       <c r="C465" s="2"/>
       <c r="F465" s="2"/>
+      <c r="I465" s="2"/>
     </row>
     <row r="466">
       <c r="C466" s="2"/>
       <c r="F466" s="2"/>
+      <c r="I466" s="2"/>
     </row>
     <row r="467">
       <c r="C467" s="2"/>
       <c r="F467" s="2"/>
+      <c r="I467" s="2"/>
     </row>
     <row r="468">
       <c r="C468" s="2"/>
       <c r="F468" s="2"/>
+      <c r="I468" s="2"/>
     </row>
     <row r="469">
       <c r="C469" s="2"/>
       <c r="F469" s="2"/>
+      <c r="I469" s="2"/>
     </row>
     <row r="470">
       <c r="C470" s="2"/>
       <c r="F470" s="2"/>
+      <c r="I470" s="2"/>
     </row>
     <row r="471">
       <c r="C471" s="2"/>
       <c r="F471" s="2"/>
+      <c r="I471" s="2"/>
     </row>
     <row r="472">
       <c r="C472" s="2"/>
       <c r="F472" s="2"/>
+      <c r="I472" s="2"/>
     </row>
     <row r="473">
       <c r="C473" s="2"/>
       <c r="F473" s="2"/>
+      <c r="I473" s="2"/>
     </row>
     <row r="474">
       <c r="C474" s="2"/>
       <c r="F474" s="2"/>
+      <c r="I474" s="2"/>
     </row>
     <row r="475">
       <c r="C475" s="2"/>
       <c r="F475" s="2"/>
+      <c r="I475" s="2"/>
     </row>
     <row r="476">
       <c r="C476" s="2"/>
       <c r="F476" s="2"/>
+      <c r="I476" s="2"/>
     </row>
     <row r="477">
       <c r="C477" s="2"/>
       <c r="F477" s="2"/>
+      <c r="I477" s="2"/>
     </row>
     <row r="478">
       <c r="C478" s="2"/>
       <c r="F478" s="2"/>
+      <c r="I478" s="2"/>
     </row>
     <row r="479">
       <c r="C479" s="2"/>
       <c r="F479" s="2"/>
+      <c r="I479" s="2"/>
     </row>
     <row r="480">
       <c r="C480" s="2"/>
       <c r="F480" s="2"/>
+      <c r="I480" s="2"/>
     </row>
     <row r="481">
       <c r="C481" s="2"/>
       <c r="F481" s="2"/>
+      <c r="I481" s="2"/>
     </row>
     <row r="482">
       <c r="C482" s="2"/>
       <c r="F482" s="2"/>
+      <c r="I482" s="2"/>
     </row>
     <row r="483">
       <c r="C483" s="2"/>
       <c r="F483" s="2"/>
+      <c r="I483" s="2"/>
     </row>
     <row r="484">
       <c r="C484" s="2"/>
       <c r="F484" s="2"/>
+      <c r="I484" s="2"/>
     </row>
     <row r="485">
       <c r="C485" s="2"/>
       <c r="F485" s="2"/>
+      <c r="I485" s="2"/>
     </row>
     <row r="486">
       <c r="C486" s="2"/>
       <c r="F486" s="2"/>
+      <c r="I486" s="2"/>
     </row>
     <row r="487">
       <c r="C487" s="2"/>
       <c r="F487" s="2"/>
+      <c r="I487" s="2"/>
     </row>
     <row r="488">
       <c r="C488" s="2"/>
       <c r="F488" s="2"/>
+      <c r="I488" s="2"/>
     </row>
     <row r="489">
       <c r="C489" s="2"/>
       <c r="F489" s="2"/>
+      <c r="I489" s="2"/>
     </row>
     <row r="490">
       <c r="C490" s="2"/>
       <c r="F490" s="2"/>
+      <c r="I490" s="2"/>
     </row>
     <row r="491">
       <c r="C491" s="2"/>
       <c r="F491" s="2"/>
+      <c r="I491" s="2"/>
     </row>
     <row r="492">
       <c r="C492" s="2"/>
       <c r="F492" s="2"/>
+      <c r="I492" s="2"/>
     </row>
     <row r="493">
       <c r="C493" s="2"/>
       <c r="F493" s="2"/>
+      <c r="I493" s="2"/>
     </row>
     <row r="494">
       <c r="C494" s="2"/>
       <c r="F494" s="2"/>
+      <c r="I494" s="2"/>
     </row>
     <row r="495">
       <c r="C495" s="2"/>
       <c r="F495" s="2"/>
+      <c r="I495" s="2"/>
     </row>
     <row r="496">
       <c r="C496" s="2"/>
       <c r="F496" s="2"/>
+      <c r="I496" s="2"/>
     </row>
     <row r="497">
       <c r="C497" s="2"/>
       <c r="F497" s="2"/>
+      <c r="I497" s="2"/>
     </row>
     <row r="498">
       <c r="C498" s="2"/>
       <c r="F498" s="2"/>
+      <c r="I498" s="2"/>
     </row>
     <row r="499">
       <c r="C499" s="2"/>
       <c r="F499" s="2"/>
+      <c r="I499" s="2"/>
     </row>
     <row r="500">
       <c r="C500" s="2"/>
       <c r="F500" s="2"/>
+      <c r="I500" s="2"/>
     </row>
     <row r="501">
       <c r="C501" s="2"/>
       <c r="F501" s="2"/>
+      <c r="I501" s="2"/>
     </row>
     <row r="502">
       <c r="C502" s="2"/>
       <c r="F502" s="2"/>
+      <c r="I502" s="2"/>
     </row>
     <row r="503">
       <c r="C503" s="2"/>
       <c r="F503" s="2"/>
+      <c r="I503" s="2"/>
     </row>
     <row r="504">
       <c r="C504" s="2"/>
       <c r="F504" s="2"/>
+      <c r="I504" s="2"/>
     </row>
     <row r="505">
       <c r="C505" s="2"/>
       <c r="F505" s="2"/>
+      <c r="I505" s="2"/>
     </row>
     <row r="506">
       <c r="C506" s="2"/>
       <c r="F506" s="2"/>
+      <c r="I506" s="2"/>
     </row>
     <row r="507">
       <c r="C507" s="2"/>
       <c r="F507" s="2"/>
+      <c r="I507" s="2"/>
     </row>
     <row r="508">
       <c r="C508" s="2"/>
       <c r="F508" s="2"/>
+      <c r="I508" s="2"/>
     </row>
     <row r="509">
       <c r="C509" s="2"/>
       <c r="F509" s="2"/>
+      <c r="I509" s="2"/>
     </row>
     <row r="510">
       <c r="C510" s="2"/>
       <c r="F510" s="2"/>
+      <c r="I510" s="2"/>
     </row>
     <row r="511">
       <c r="C511" s="2"/>
       <c r="F511" s="2"/>
+      <c r="I511" s="2"/>
     </row>
     <row r="512">
       <c r="C512" s="2"/>
       <c r="F512" s="2"/>
+      <c r="I512" s="2"/>
     </row>
     <row r="513">
       <c r="C513" s="2"/>
       <c r="F513" s="2"/>
+      <c r="I513" s="2"/>
     </row>
     <row r="514">
       <c r="C514" s="2"/>
       <c r="F514" s="2"/>
+      <c r="I514" s="2"/>
     </row>
     <row r="515">
       <c r="C515" s="2"/>
       <c r="F515" s="2"/>
+      <c r="I515" s="2"/>
     </row>
     <row r="516">
       <c r="C516" s="2"/>
       <c r="F516" s="2"/>
+      <c r="I516" s="2"/>
     </row>
     <row r="517">
       <c r="C517" s="2"/>
       <c r="F517" s="2"/>
+      <c r="I517" s="2"/>
     </row>
     <row r="518">
       <c r="C518" s="2"/>
       <c r="F518" s="2"/>
+      <c r="I518" s="2"/>
     </row>
     <row r="519">
       <c r="C519" s="2"/>
       <c r="F519" s="2"/>
+      <c r="I519" s="2"/>
     </row>
     <row r="520">
       <c r="C520" s="2"/>
       <c r="F520" s="2"/>
+      <c r="I520" s="2"/>
     </row>
     <row r="521">
       <c r="C521" s="2"/>
       <c r="F521" s="2"/>
+      <c r="I521" s="2"/>
     </row>
     <row r="522">
       <c r="C522" s="2"/>
       <c r="F522" s="2"/>
+      <c r="I522" s="2"/>
     </row>
     <row r="523">
       <c r="C523" s="2"/>
       <c r="F523" s="2"/>
+      <c r="I523" s="2"/>
     </row>
     <row r="524">
       <c r="C524" s="2"/>
       <c r="F524" s="2"/>
+      <c r="I524" s="2"/>
     </row>
     <row r="525">
       <c r="C525" s="2"/>
       <c r="F525" s="2"/>
+      <c r="I525" s="2"/>
     </row>
     <row r="526">
       <c r="C526" s="2"/>
       <c r="F526" s="2"/>
+      <c r="I526" s="2"/>
     </row>
     <row r="527">
       <c r="C527" s="2"/>
       <c r="F527" s="2"/>
+      <c r="I527" s="2"/>
     </row>
     <row r="528">
       <c r="C528" s="2"/>
       <c r="F528" s="2"/>
+      <c r="I528" s="2"/>
     </row>
     <row r="529">
       <c r="C529" s="2"/>
       <c r="F529" s="2"/>
+      <c r="I529" s="2"/>
     </row>
     <row r="530">
       <c r="C530" s="2"/>
       <c r="F530" s="2"/>
+      <c r="I530" s="2"/>
     </row>
     <row r="531">
       <c r="C531" s="2"/>
       <c r="F531" s="2"/>
+      <c r="I531" s="2"/>
     </row>
     <row r="532">
       <c r="C532" s="2"/>
       <c r="F532" s="2"/>
+      <c r="I532" s="2"/>
     </row>
     <row r="533">
       <c r="C533" s="2"/>
       <c r="F533" s="2"/>
+      <c r="I533" s="2"/>
     </row>
     <row r="534">
       <c r="C534" s="2"/>
       <c r="F534" s="2"/>
+      <c r="I534" s="2"/>
     </row>
     <row r="535">
       <c r="C535" s="2"/>
       <c r="F535" s="2"/>
+      <c r="I535" s="2"/>
     </row>
     <row r="536">
       <c r="C536" s="2"/>
       <c r="F536" s="2"/>
+      <c r="I536" s="2"/>
     </row>
     <row r="537">
       <c r="C537" s="2"/>
       <c r="F537" s="2"/>
+      <c r="I537" s="2"/>
     </row>
     <row r="538">
       <c r="C538" s="2"/>
       <c r="F538" s="2"/>
+      <c r="I538" s="2"/>
     </row>
     <row r="539">
       <c r="C539" s="2"/>
       <c r="F539" s="2"/>
+      <c r="I539" s="2"/>
     </row>
     <row r="540">
       <c r="C540" s="2"/>
       <c r="F540" s="2"/>
+      <c r="I540" s="2"/>
     </row>
     <row r="541">
       <c r="C541" s="2"/>
       <c r="F541" s="2"/>
+      <c r="I541" s="2"/>
     </row>
     <row r="542">
       <c r="C542" s="2"/>
       <c r="F542" s="2"/>
+      <c r="I542" s="2"/>
     </row>
     <row r="543">
       <c r="C543" s="2"/>
       <c r="F543" s="2"/>
+      <c r="I543" s="2"/>
     </row>
     <row r="544">
       <c r="C544" s="2"/>
       <c r="F544" s="2"/>
+      <c r="I544" s="2"/>
     </row>
     <row r="545">
       <c r="C545" s="2"/>
       <c r="F545" s="2"/>
+      <c r="I545" s="2"/>
     </row>
     <row r="546">
       <c r="C546" s="2"/>
       <c r="F546" s="2"/>
+      <c r="I546" s="2"/>
     </row>
     <row r="547">
       <c r="C547" s="2"/>
       <c r="F547" s="2"/>
+      <c r="I547" s="2"/>
     </row>
     <row r="548">
       <c r="C548" s="2"/>
       <c r="F548" s="2"/>
+      <c r="I548" s="2"/>
     </row>
     <row r="549">
       <c r="C549" s="2"/>
       <c r="F549" s="2"/>
+      <c r="I549" s="2"/>
     </row>
     <row r="550">
       <c r="C550" s="2"/>
       <c r="F550" s="2"/>
+      <c r="I550" s="2"/>
     </row>
     <row r="551">
       <c r="C551" s="2"/>
       <c r="F551" s="2"/>
+      <c r="I551" s="2"/>
     </row>
     <row r="552">
       <c r="C552" s="2"/>
       <c r="F552" s="2"/>
+      <c r="I552" s="2"/>
     </row>
     <row r="553">
       <c r="C553" s="2"/>
       <c r="F553" s="2"/>
+      <c r="I553" s="2"/>
     </row>
     <row r="554">
       <c r="C554" s="2"/>
       <c r="F554" s="2"/>
+      <c r="I554" s="2"/>
     </row>
     <row r="555">
       <c r="C555" s="2"/>
       <c r="F555" s="2"/>
+      <c r="I555" s="2"/>
     </row>
     <row r="556">
       <c r="C556" s="2"/>
       <c r="F556" s="2"/>
+      <c r="I556" s="2"/>
     </row>
     <row r="557">
       <c r="C557" s="2"/>
       <c r="F557" s="2"/>
+      <c r="I557" s="2"/>
     </row>
     <row r="558">
       <c r="C558" s="2"/>
       <c r="F558" s="2"/>
+      <c r="I558" s="2"/>
     </row>
     <row r="559">
       <c r="C559" s="2"/>
       <c r="F559" s="2"/>
+      <c r="I559" s="2"/>
     </row>
     <row r="560">
       <c r="C560" s="2"/>
       <c r="F560" s="2"/>
+      <c r="I560" s="2"/>
     </row>
     <row r="561">
       <c r="C561" s="2"/>
       <c r="F561" s="2"/>
+      <c r="I561" s="2"/>
     </row>
     <row r="562">
       <c r="C562" s="2"/>
       <c r="F562" s="2"/>
+      <c r="I562" s="2"/>
     </row>
     <row r="563">
       <c r="C563" s="2"/>
       <c r="F563" s="2"/>
+      <c r="I563" s="2"/>
     </row>
     <row r="564">
       <c r="C564" s="2"/>
       <c r="F564" s="2"/>
+      <c r="I564" s="2"/>
     </row>
     <row r="565">
       <c r="C565" s="2"/>
       <c r="F565" s="2"/>
+      <c r="I565" s="2"/>
     </row>
     <row r="566">
       <c r="C566" s="2"/>
       <c r="F566" s="2"/>
+      <c r="I566" s="2"/>
     </row>
     <row r="567">
       <c r="C567" s="2"/>
       <c r="F567" s="2"/>
+      <c r="I567" s="2"/>
     </row>
     <row r="568">
       <c r="C568" s="2"/>
       <c r="F568" s="2"/>
+      <c r="I568" s="2"/>
     </row>
     <row r="569">
       <c r="C569" s="2"/>
       <c r="F569" s="2"/>
+      <c r="I569" s="2"/>
     </row>
     <row r="570">
       <c r="C570" s="2"/>
       <c r="F570" s="2"/>
+      <c r="I570" s="2"/>
     </row>
     <row r="571">
       <c r="C571" s="2"/>
       <c r="F571" s="2"/>
+      <c r="I571" s="2"/>
     </row>
     <row r="572">
       <c r="C572" s="2"/>
       <c r="F572" s="2"/>
+      <c r="I572" s="2"/>
     </row>
     <row r="573">
       <c r="C573" s="2"/>
       <c r="F573" s="2"/>
+      <c r="I573" s="2"/>
     </row>
     <row r="574">
       <c r="C574" s="2"/>
       <c r="F574" s="2"/>
+      <c r="I574" s="2"/>
     </row>
     <row r="575">
       <c r="C575" s="2"/>
       <c r="F575" s="2"/>
+      <c r="I575" s="2"/>
     </row>
     <row r="576">
       <c r="C576" s="2"/>
       <c r="F576" s="2"/>
+      <c r="I576" s="2"/>
     </row>
     <row r="577">
       <c r="C577" s="2"/>
       <c r="F577" s="2"/>
+      <c r="I577" s="2"/>
     </row>
     <row r="578">
       <c r="C578" s="2"/>
       <c r="F578" s="2"/>
+      <c r="I578" s="2"/>
     </row>
     <row r="579">
       <c r="C579" s="2"/>
       <c r="F579" s="2"/>
+      <c r="I579" s="2"/>
     </row>
     <row r="580">
       <c r="C580" s="2"/>
       <c r="F580" s="2"/>
+      <c r="I580" s="2"/>
     </row>
     <row r="581">
       <c r="C581" s="2"/>
       <c r="F581" s="2"/>
+      <c r="I581" s="2"/>
     </row>
     <row r="582">
       <c r="C582" s="2"/>
       <c r="F582" s="2"/>
+      <c r="I582" s="2"/>
     </row>
     <row r="583">
       <c r="C583" s="2"/>
       <c r="F583" s="2"/>
+      <c r="I583" s="2"/>
     </row>
     <row r="584">
       <c r="C584" s="2"/>
       <c r="F584" s="2"/>
+      <c r="I584" s="2"/>
     </row>
     <row r="585">
       <c r="C585" s="2"/>
       <c r="F585" s="2"/>
+      <c r="I585" s="2"/>
     </row>
     <row r="586">
       <c r="C586" s="2"/>
       <c r="F586" s="2"/>
+      <c r="I586" s="2"/>
     </row>
     <row r="587">
       <c r="C587" s="2"/>
       <c r="F587" s="2"/>
+      <c r="I587" s="2"/>
     </row>
     <row r="588">
       <c r="C588" s="2"/>
       <c r="F588" s="2"/>
+      <c r="I588" s="2"/>
     </row>
     <row r="589">
       <c r="C589" s="2"/>
       <c r="F589" s="2"/>
+      <c r="I589" s="2"/>
     </row>
     <row r="590">
       <c r="C590" s="2"/>
       <c r="F590" s="2"/>
+      <c r="I590" s="2"/>
     </row>
     <row r="591">
       <c r="C591" s="2"/>
       <c r="F591" s="2"/>
+      <c r="I591" s="2"/>
     </row>
     <row r="592">
       <c r="C592" s="2"/>
       <c r="F592" s="2"/>
+      <c r="I592" s="2"/>
     </row>
     <row r="593">
       <c r="C593" s="2"/>
       <c r="F593" s="2"/>
+      <c r="I593" s="2"/>
     </row>
     <row r="594">
       <c r="C594" s="2"/>
       <c r="F594" s="2"/>
+      <c r="I594" s="2"/>
     </row>
     <row r="595">
       <c r="C595" s="2"/>
       <c r="F595" s="2"/>
+      <c r="I595" s="2"/>
     </row>
     <row r="596">
       <c r="C596" s="2"/>
       <c r="F596" s="2"/>
+      <c r="I596" s="2"/>
     </row>
     <row r="597">
       <c r="C597" s="2"/>
       <c r="F597" s="2"/>
+      <c r="I597" s="2"/>
     </row>
     <row r="598">
       <c r="C598" s="2"/>
       <c r="F598" s="2"/>
+      <c r="I598" s="2"/>
     </row>
     <row r="599">
       <c r="C599" s="2"/>
       <c r="F599" s="2"/>
+      <c r="I599" s="2"/>
     </row>
     <row r="600">
       <c r="C600" s="2"/>
       <c r="F600" s="2"/>
+      <c r="I600" s="2"/>
     </row>
     <row r="601">
       <c r="C601" s="2"/>
       <c r="F601" s="2"/>
+      <c r="I601" s="2"/>
     </row>
     <row r="602">
       <c r="C602" s="2"/>
       <c r="F602" s="2"/>
+      <c r="I602" s="2"/>
     </row>
     <row r="603">
       <c r="C603" s="2"/>
       <c r="F603" s="2"/>
+      <c r="I603" s="2"/>
     </row>
     <row r="604">
       <c r="C604" s="2"/>
       <c r="F604" s="2"/>
+      <c r="I604" s="2"/>
     </row>
     <row r="605">
       <c r="C605" s="2"/>
       <c r="F605" s="2"/>
+      <c r="I605" s="2"/>
     </row>
     <row r="606">
       <c r="C606" s="2"/>
       <c r="F606" s="2"/>
+      <c r="I606" s="2"/>
     </row>
     <row r="607">
       <c r="C607" s="2"/>
       <c r="F607" s="2"/>
+      <c r="I607" s="2"/>
     </row>
     <row r="608">
       <c r="C608" s="2"/>
       <c r="F608" s="2"/>
+      <c r="I608" s="2"/>
     </row>
     <row r="609">
       <c r="C609" s="2"/>
       <c r="F609" s="2"/>
+      <c r="I609" s="2"/>
     </row>
     <row r="610">
       <c r="C610" s="2"/>
       <c r="F610" s="2"/>
+      <c r="I610" s="2"/>
     </row>
     <row r="611">
       <c r="C611" s="2"/>
       <c r="F611" s="2"/>
+      <c r="I611" s="2"/>
     </row>
     <row r="612">
       <c r="C612" s="2"/>
       <c r="F612" s="2"/>
+      <c r="I612" s="2"/>
     </row>
     <row r="613">
       <c r="C613" s="2"/>
       <c r="F613" s="2"/>
+      <c r="I613" s="2"/>
     </row>
     <row r="614">
       <c r="C614" s="2"/>
       <c r="F614" s="2"/>
+      <c r="I614" s="2"/>
     </row>
     <row r="615">
       <c r="C615" s="2"/>
       <c r="F615" s="2"/>
+      <c r="I615" s="2"/>
     </row>
     <row r="616">
       <c r="C616" s="2"/>
       <c r="F616" s="2"/>
+      <c r="I616" s="2"/>
     </row>
     <row r="617">
       <c r="C617" s="2"/>
       <c r="F617" s="2"/>
+      <c r="I617" s="2"/>
     </row>
     <row r="618">
       <c r="C618" s="2"/>
       <c r="F618" s="2"/>
+      <c r="I618" s="2"/>
     </row>
     <row r="619">
       <c r="C619" s="2"/>
       <c r="F619" s="2"/>
+      <c r="I619" s="2"/>
     </row>
     <row r="620">
       <c r="C620" s="2"/>
       <c r="F620" s="2"/>
+      <c r="I620" s="2"/>
     </row>
     <row r="621">
       <c r="C621" s="2"/>
       <c r="F621" s="2"/>
+      <c r="I621" s="2"/>
     </row>
     <row r="622">
       <c r="C622" s="2"/>
       <c r="F622" s="2"/>
+      <c r="I622" s="2"/>
     </row>
     <row r="623">
       <c r="C623" s="2"/>
       <c r="F623" s="2"/>
+      <c r="I623" s="2"/>
     </row>
     <row r="624">
       <c r="C624" s="2"/>
       <c r="F624" s="2"/>
+      <c r="I624" s="2"/>
     </row>
     <row r="625">
       <c r="C625" s="2"/>
       <c r="F625" s="2"/>
+      <c r="I625" s="2"/>
     </row>
     <row r="626">
       <c r="C626" s="2"/>
       <c r="F626" s="2"/>
+      <c r="I626" s="2"/>
     </row>
     <row r="627">
       <c r="C627" s="2"/>
       <c r="F627" s="2"/>
+      <c r="I627" s="2"/>
     </row>
     <row r="628">
       <c r="C628" s="2"/>
       <c r="F628" s="2"/>
+      <c r="I628" s="2"/>
     </row>
     <row r="629">
       <c r="C629" s="2"/>
       <c r="F629" s="2"/>
+      <c r="I629" s="2"/>
     </row>
     <row r="630">
       <c r="C630" s="2"/>
       <c r="F630" s="2"/>
+      <c r="I630" s="2"/>
     </row>
     <row r="631">
       <c r="C631" s="2"/>
       <c r="F631" s="2"/>
+      <c r="I631" s="2"/>
     </row>
     <row r="632">
       <c r="C632" s="2"/>
       <c r="F632" s="2"/>
+      <c r="I632" s="2"/>
     </row>
     <row r="633">
       <c r="C633" s="2"/>
       <c r="F633" s="2"/>
+      <c r="I633" s="2"/>
     </row>
     <row r="634">
       <c r="C634" s="2"/>
       <c r="F634" s="2"/>
+      <c r="I634" s="2"/>
     </row>
     <row r="635">
       <c r="C635" s="2"/>
       <c r="F635" s="2"/>
+      <c r="I635" s="2"/>
     </row>
     <row r="636">
       <c r="C636" s="2"/>
       <c r="F636" s="2"/>
+      <c r="I636" s="2"/>
     </row>
     <row r="637">
       <c r="C637" s="2"/>
       <c r="F637" s="2"/>
+      <c r="I637" s="2"/>
     </row>
     <row r="638">
       <c r="C638" s="2"/>
       <c r="F638" s="2"/>
+      <c r="I638" s="2"/>
     </row>
     <row r="639">
       <c r="C639" s="2"/>
       <c r="F639" s="2"/>
+      <c r="I639" s="2"/>
     </row>
     <row r="640">
       <c r="C640" s="2"/>
       <c r="F640" s="2"/>
+      <c r="I640" s="2"/>
     </row>
     <row r="641">
       <c r="C641" s="2"/>
       <c r="F641" s="2"/>
+      <c r="I641" s="2"/>
     </row>
     <row r="642">
       <c r="C642" s="2"/>
       <c r="F642" s="2"/>
+      <c r="I642" s="2"/>
     </row>
     <row r="643">
       <c r="C643" s="2"/>
       <c r="F643" s="2"/>
+      <c r="I643" s="2"/>
     </row>
     <row r="644">
       <c r="C644" s="2"/>
       <c r="F644" s="2"/>
+      <c r="I644" s="2"/>
     </row>
     <row r="645">
       <c r="C645" s="2"/>
       <c r="F645" s="2"/>
+      <c r="I645" s="2"/>
     </row>
     <row r="646">
       <c r="C646" s="2"/>
       <c r="F646" s="2"/>
+      <c r="I646" s="2"/>
     </row>
     <row r="647">
       <c r="C647" s="2"/>
       <c r="F647" s="2"/>
+      <c r="I647" s="2"/>
     </row>
     <row r="648">
       <c r="C648" s="2"/>
       <c r="F648" s="2"/>
+      <c r="I648" s="2"/>
     </row>
     <row r="649">
       <c r="C649" s="2"/>
       <c r="F649" s="2"/>
+      <c r="I649" s="2"/>
     </row>
     <row r="650">
       <c r="C650" s="2"/>
       <c r="F650" s="2"/>
+      <c r="I650" s="2"/>
     </row>
     <row r="651">
       <c r="C651" s="2"/>
       <c r="F651" s="2"/>
+      <c r="I651" s="2"/>
     </row>
     <row r="652">
       <c r="C652" s="2"/>
       <c r="F652" s="2"/>
+      <c r="I652" s="2"/>
     </row>
     <row r="653">
       <c r="C653" s="2"/>
       <c r="F653" s="2"/>
+      <c r="I653" s="2"/>
     </row>
     <row r="654">
       <c r="C654" s="2"/>
       <c r="F654" s="2"/>
+      <c r="I654" s="2"/>
     </row>
     <row r="655">
       <c r="C655" s="2"/>
       <c r="F655" s="2"/>
+      <c r="I655" s="2"/>
     </row>
     <row r="656">
       <c r="C656" s="2"/>
       <c r="F656" s="2"/>
+      <c r="I656" s="2"/>
     </row>
     <row r="657">
       <c r="C657" s="2"/>
       <c r="F657" s="2"/>
+      <c r="I657" s="2"/>
     </row>
     <row r="658">
       <c r="C658" s="2"/>
       <c r="F658" s="2"/>
+      <c r="I658" s="2"/>
     </row>
     <row r="659">
       <c r="C659" s="2"/>
       <c r="F659" s="2"/>
+      <c r="I659" s="2"/>
     </row>
     <row r="660">
       <c r="C660" s="2"/>
       <c r="F660" s="2"/>
+      <c r="I660" s="2"/>
     </row>
     <row r="661">
       <c r="C661" s="2"/>
       <c r="F661" s="2"/>
+      <c r="I661" s="2"/>
     </row>
     <row r="662">
       <c r="C662" s="2"/>
       <c r="F662" s="2"/>
+      <c r="I662" s="2"/>
     </row>
     <row r="663">
       <c r="C663" s="2"/>
       <c r="F663" s="2"/>
+      <c r="I663" s="2"/>
     </row>
     <row r="664">
       <c r="C664" s="2"/>
       <c r="F664" s="2"/>
+      <c r="I664" s="2"/>
     </row>
     <row r="665">
       <c r="C665" s="2"/>
       <c r="F665" s="2"/>
+      <c r="I665" s="2"/>
     </row>
     <row r="666">
       <c r="C666" s="2"/>
       <c r="F666" s="2"/>
+      <c r="I666" s="2"/>
     </row>
     <row r="667">
       <c r="C667" s="2"/>
       <c r="F667" s="2"/>
+      <c r="I667" s="2"/>
     </row>
     <row r="668">
       <c r="C668" s="2"/>
       <c r="F668" s="2"/>
+      <c r="I668" s="2"/>
     </row>
     <row r="669">
       <c r="C669" s="2"/>
       <c r="F669" s="2"/>
+      <c r="I669" s="2"/>
     </row>
     <row r="670">
       <c r="C670" s="2"/>
       <c r="F670" s="2"/>
+      <c r="I670" s="2"/>
     </row>
     <row r="671">
       <c r="C671" s="2"/>
       <c r="F671" s="2"/>
+      <c r="I671" s="2"/>
     </row>
     <row r="672">
       <c r="C672" s="2"/>
       <c r="F672" s="2"/>
+      <c r="I672" s="2"/>
     </row>
     <row r="673">
       <c r="C673" s="2"/>
       <c r="F673" s="2"/>
+      <c r="I673" s="2"/>
     </row>
     <row r="674">
       <c r="C674" s="2"/>
       <c r="F674" s="2"/>
+      <c r="I674" s="2"/>
     </row>
     <row r="675">
       <c r="C675" s="2"/>
       <c r="F675" s="2"/>
+      <c r="I675" s="2"/>
     </row>
     <row r="676">
       <c r="C676" s="2"/>
       <c r="F676" s="2"/>
+      <c r="I676" s="2"/>
     </row>
     <row r="677">
       <c r="C677" s="2"/>
       <c r="F677" s="2"/>
+      <c r="I677" s="2"/>
     </row>
     <row r="678">
       <c r="C678" s="2"/>
       <c r="F678" s="2"/>
+      <c r="I678" s="2"/>
     </row>
     <row r="679">
       <c r="C679" s="2"/>
       <c r="F679" s="2"/>
+      <c r="I679" s="2"/>
     </row>
     <row r="680">
       <c r="C680" s="2"/>
       <c r="F680" s="2"/>
+      <c r="I680" s="2"/>
     </row>
     <row r="681">
       <c r="C681" s="2"/>
       <c r="F681" s="2"/>
+      <c r="I681" s="2"/>
     </row>
     <row r="682">
       <c r="C682" s="2"/>
       <c r="F682" s="2"/>
+      <c r="I682" s="2"/>
     </row>
     <row r="683">
       <c r="C683" s="2"/>
       <c r="F683" s="2"/>
+      <c r="I683" s="2"/>
     </row>
     <row r="684">
       <c r="C684" s="2"/>
       <c r="F684" s="2"/>
+      <c r="I684" s="2"/>
     </row>
     <row r="685">
       <c r="C685" s="2"/>
       <c r="F685" s="2"/>
+      <c r="I685" s="2"/>
     </row>
     <row r="686">
       <c r="C686" s="2"/>
       <c r="F686" s="2"/>
+      <c r="I686" s="2"/>
     </row>
     <row r="687">
       <c r="C687" s="2"/>
       <c r="F687" s="2"/>
+      <c r="I687" s="2"/>
     </row>
     <row r="688">
       <c r="C688" s="2"/>
       <c r="F688" s="2"/>
+      <c r="I688" s="2"/>
     </row>
     <row r="689">
       <c r="C689" s="2"/>
       <c r="F689" s="2"/>
+      <c r="I689" s="2"/>
     </row>
     <row r="690">
       <c r="C690" s="2"/>
       <c r="F690" s="2"/>
+      <c r="I690" s="2"/>
     </row>
     <row r="691">
       <c r="C691" s="2"/>
       <c r="F691" s="2"/>
+      <c r="I691" s="2"/>
     </row>
     <row r="692">
       <c r="C692" s="2"/>
       <c r="F692" s="2"/>
+      <c r="I692" s="2"/>
     </row>
     <row r="693">
       <c r="C693" s="2"/>
       <c r="F693" s="2"/>
+      <c r="I693" s="2"/>
     </row>
     <row r="694">
       <c r="C694" s="2"/>
       <c r="F694" s="2"/>
+      <c r="I694" s="2"/>
     </row>
     <row r="695">
       <c r="C695" s="2"/>
       <c r="F695" s="2"/>
+      <c r="I695" s="2"/>
     </row>
     <row r="696">
       <c r="C696" s="2"/>
       <c r="F696" s="2"/>
+      <c r="I696" s="2"/>
     </row>
     <row r="697">
       <c r="C697" s="2"/>
       <c r="F697" s="2"/>
+      <c r="I697" s="2"/>
     </row>
     <row r="698">
       <c r="C698" s="2"/>
       <c r="F698" s="2"/>
+      <c r="I698" s="2"/>
     </row>
     <row r="699">
       <c r="C699" s="2"/>
       <c r="F699" s="2"/>
+      <c r="I699" s="2"/>
     </row>
     <row r="700">
       <c r="C700" s="2"/>
       <c r="F700" s="2"/>
+      <c r="I700" s="2"/>
     </row>
     <row r="701">
       <c r="C701" s="2"/>
       <c r="F701" s="2"/>
+      <c r="I701" s="2"/>
     </row>
     <row r="702">
       <c r="C702" s="2"/>
       <c r="F702" s="2"/>
+      <c r="I702" s="2"/>
     </row>
     <row r="703">
       <c r="C703" s="2"/>
       <c r="F703" s="2"/>
+      <c r="I703" s="2"/>
     </row>
     <row r="704">
       <c r="C704" s="2"/>
       <c r="F704" s="2"/>
+      <c r="I704" s="2"/>
     </row>
     <row r="705">
       <c r="C705" s="2"/>
       <c r="F705" s="2"/>
+      <c r="I705" s="2"/>
     </row>
     <row r="706">
       <c r="C706" s="2"/>
       <c r="F706" s="2"/>
+      <c r="I706" s="2"/>
     </row>
     <row r="707">
       <c r="C707" s="2"/>
       <c r="F707" s="2"/>
+      <c r="I707" s="2"/>
     </row>
     <row r="708">
       <c r="C708" s="2"/>
       <c r="F708" s="2"/>
+      <c r="I708" s="2"/>
     </row>
     <row r="709">
       <c r="C709" s="2"/>
       <c r="F709" s="2"/>
+      <c r="I709" s="2"/>
     </row>
     <row r="710">
       <c r="C710" s="2"/>
       <c r="F710" s="2"/>
+      <c r="I710" s="2"/>
     </row>
     <row r="711">
       <c r="C711" s="2"/>
       <c r="F711" s="2"/>
+      <c r="I711" s="2"/>
     </row>
     <row r="712">
       <c r="C712" s="2"/>
       <c r="F712" s="2"/>
+      <c r="I712" s="2"/>
     </row>
     <row r="713">
       <c r="C713" s="2"/>
       <c r="F713" s="2"/>
+      <c r="I713" s="2"/>
     </row>
     <row r="714">
       <c r="C714" s="2"/>
       <c r="F714" s="2"/>
+      <c r="I714" s="2"/>
     </row>
     <row r="715">
       <c r="C715" s="2"/>
       <c r="F715" s="2"/>
+      <c r="I715" s="2"/>
     </row>
     <row r="716">
       <c r="C716" s="2"/>
       <c r="F716" s="2"/>
+      <c r="I716" s="2"/>
     </row>
     <row r="717">
       <c r="C717" s="2"/>
       <c r="F717" s="2"/>
+      <c r="I717" s="2"/>
     </row>
     <row r="718">
       <c r="C718" s="2"/>
       <c r="F718" s="2"/>
+      <c r="I718" s="2"/>
     </row>
     <row r="719">
       <c r="C719" s="2"/>
       <c r="F719" s="2"/>
+      <c r="I719" s="2"/>
     </row>
     <row r="720">
       <c r="C720" s="2"/>
       <c r="F720" s="2"/>
+      <c r="I720" s="2"/>
     </row>
     <row r="721">
       <c r="C721" s="2"/>
       <c r="F721" s="2"/>
+      <c r="I721" s="2"/>
     </row>
     <row r="722">
       <c r="C722" s="2"/>
       <c r="F722" s="2"/>
+      <c r="I722" s="2"/>
     </row>
     <row r="723">
       <c r="C723" s="2"/>
       <c r="F723" s="2"/>
+      <c r="I723" s="2"/>
     </row>
     <row r="724">
       <c r="C724" s="2"/>
       <c r="F724" s="2"/>
+      <c r="I724" s="2"/>
     </row>
     <row r="725">
       <c r="C725" s="2"/>
       <c r="F725" s="2"/>
+      <c r="I725" s="2"/>
     </row>
     <row r="726">
       <c r="C726" s="2"/>
       <c r="F726" s="2"/>
+      <c r="I726" s="2"/>
     </row>
     <row r="727">
       <c r="C727" s="2"/>
       <c r="F727" s="2"/>
+      <c r="I727" s="2"/>
     </row>
     <row r="728">
       <c r="C728" s="2"/>
       <c r="F728" s="2"/>
+      <c r="I728" s="2"/>
     </row>
     <row r="729">
       <c r="C729" s="2"/>
       <c r="F729" s="2"/>
+      <c r="I729" s="2"/>
     </row>
     <row r="730">
       <c r="C730" s="2"/>
       <c r="F730" s="2"/>
+      <c r="I730" s="2"/>
     </row>
     <row r="731">
       <c r="C731" s="2"/>
       <c r="F731" s="2"/>
+      <c r="I731" s="2"/>
     </row>
     <row r="732">
       <c r="C732" s="2"/>
       <c r="F732" s="2"/>
+      <c r="I732" s="2"/>
     </row>
     <row r="733">
       <c r="C733" s="2"/>
       <c r="F733" s="2"/>
+      <c r="I733" s="2"/>
     </row>
     <row r="734">
       <c r="C734" s="2"/>
       <c r="F734" s="2"/>
+      <c r="I734" s="2"/>
     </row>
     <row r="735">
       <c r="C735" s="2"/>
       <c r="F735" s="2"/>
+      <c r="I735" s="2"/>
     </row>
     <row r="736">
       <c r="C736" s="2"/>
       <c r="F736" s="2"/>
+      <c r="I736" s="2"/>
     </row>
     <row r="737">
       <c r="C737" s="2"/>
       <c r="F737" s="2"/>
+      <c r="I737" s="2"/>
     </row>
     <row r="738">
       <c r="C738" s="2"/>
       <c r="F738" s="2"/>
+      <c r="I738" s="2"/>
     </row>
     <row r="739">
       <c r="C739" s="2"/>
       <c r="F739" s="2"/>
+      <c r="I739" s="2"/>
     </row>
     <row r="740">
       <c r="C740" s="2"/>
       <c r="F740" s="2"/>
+      <c r="I740" s="2"/>
     </row>
     <row r="741">
       <c r="C741" s="2"/>
       <c r="F741" s="2"/>
+      <c r="I741" s="2"/>
     </row>
     <row r="742">
       <c r="C742" s="2"/>
       <c r="F742" s="2"/>
+      <c r="I742" s="2"/>
     </row>
     <row r="743">
       <c r="C743" s="2"/>
       <c r="F743" s="2"/>
+      <c r="I743" s="2"/>
     </row>
     <row r="744">
       <c r="C744" s="2"/>
       <c r="F744" s="2"/>
+      <c r="I744" s="2"/>
     </row>
     <row r="745">
       <c r="C745" s="2"/>
       <c r="F745" s="2"/>
+      <c r="I745" s="2"/>
     </row>
     <row r="746">
       <c r="C746" s="2"/>
       <c r="F746" s="2"/>
+      <c r="I746" s="2"/>
     </row>
     <row r="747">
       <c r="C747" s="2"/>
       <c r="F747" s="2"/>
+      <c r="I747" s="2"/>
     </row>
     <row r="748">
       <c r="C748" s="2"/>
       <c r="F748" s="2"/>
+      <c r="I748" s="2"/>
     </row>
     <row r="749">
       <c r="C749" s="2"/>
       <c r="F749" s="2"/>
+      <c r="I749" s="2"/>
     </row>
     <row r="750">
       <c r="C750" s="2"/>
       <c r="F750" s="2"/>
+      <c r="I750" s="2"/>
     </row>
     <row r="751">
       <c r="C751" s="2"/>
       <c r="F751" s="2"/>
+      <c r="I751" s="2"/>
     </row>
     <row r="752">
       <c r="C752" s="2"/>
       <c r="F752" s="2"/>
+      <c r="I752" s="2"/>
     </row>
     <row r="753">
       <c r="C753" s="2"/>
       <c r="F753" s="2"/>
+      <c r="I753" s="2"/>
     </row>
     <row r="754">
       <c r="C754" s="2"/>
       <c r="F754" s="2"/>
+      <c r="I754" s="2"/>
     </row>
     <row r="755">
       <c r="C755" s="2"/>
       <c r="F755" s="2"/>
+      <c r="I755" s="2"/>
     </row>
     <row r="756">
       <c r="C756" s="2"/>
       <c r="F756" s="2"/>
+      <c r="I756" s="2"/>
     </row>
     <row r="757">
       <c r="C757" s="2"/>
       <c r="F757" s="2"/>
+      <c r="I757" s="2"/>
     </row>
     <row r="758">
       <c r="C758" s="2"/>
       <c r="F758" s="2"/>
+      <c r="I758" s="2"/>
     </row>
     <row r="759">
       <c r="C759" s="2"/>
       <c r="F759" s="2"/>
+      <c r="I759" s="2"/>
     </row>
     <row r="760">
       <c r="C760" s="2"/>
       <c r="F760" s="2"/>
+      <c r="I760" s="2"/>
     </row>
     <row r="761">
       <c r="C761" s="2"/>
       <c r="F761" s="2"/>
+      <c r="I761" s="2"/>
     </row>
     <row r="762">
       <c r="C762" s="2"/>
       <c r="F762" s="2"/>
+      <c r="I762" s="2"/>
     </row>
     <row r="763">
       <c r="C763" s="2"/>
       <c r="F763" s="2"/>
+      <c r="I763" s="2"/>
     </row>
     <row r="764">
       <c r="C764" s="2"/>
       <c r="F764" s="2"/>
+      <c r="I764" s="2"/>
     </row>
     <row r="765">
       <c r="C765" s="2"/>
       <c r="F765" s="2"/>
+      <c r="I765" s="2"/>
     </row>
     <row r="766">
       <c r="C766" s="2"/>
       <c r="F766" s="2"/>
+      <c r="I766" s="2"/>
     </row>
     <row r="767">
       <c r="C767" s="2"/>
       <c r="F767" s="2"/>
+      <c r="I767" s="2"/>
     </row>
     <row r="768">
       <c r="C768" s="2"/>
       <c r="F768" s="2"/>
+      <c r="I768" s="2"/>
     </row>
     <row r="769">
       <c r="C769" s="2"/>
       <c r="F769" s="2"/>
+      <c r="I769" s="2"/>
     </row>
     <row r="770">
       <c r="C770" s="2"/>
       <c r="F770" s="2"/>
+      <c r="I770" s="2"/>
     </row>
     <row r="771">
       <c r="C771" s="2"/>
       <c r="F771" s="2"/>
+      <c r="I771" s="2"/>
     </row>
     <row r="772">
       <c r="C772" s="2"/>
       <c r="F772" s="2"/>
+      <c r="I772" s="2"/>
     </row>
     <row r="773">
       <c r="C773" s="2"/>
       <c r="F773" s="2"/>
+      <c r="I773" s="2"/>
     </row>
     <row r="774">
       <c r="C774" s="2"/>
       <c r="F774" s="2"/>
+      <c r="I774" s="2"/>
     </row>
     <row r="775">
       <c r="C775" s="2"/>
       <c r="F775" s="2"/>
+      <c r="I775" s="2"/>
     </row>
     <row r="776">
       <c r="C776" s="2"/>
       <c r="F776" s="2"/>
+      <c r="I776" s="2"/>
     </row>
     <row r="777">
       <c r="C777" s="2"/>
       <c r="F777" s="2"/>
+      <c r="I777" s="2"/>
     </row>
     <row r="778">
       <c r="C778" s="2"/>
       <c r="F778" s="2"/>
+      <c r="I778" s="2"/>
     </row>
     <row r="779">
       <c r="C779" s="2"/>
       <c r="F779" s="2"/>
+      <c r="I779" s="2"/>
     </row>
     <row r="780">
       <c r="C780" s="2"/>
       <c r="F780" s="2"/>
+      <c r="I780" s="2"/>
     </row>
     <row r="781">
       <c r="C781" s="2"/>
       <c r="F781" s="2"/>
+      <c r="I781" s="2"/>
     </row>
     <row r="782">
       <c r="C782" s="2"/>
       <c r="F782" s="2"/>
+      <c r="I782" s="2"/>
     </row>
     <row r="783">
       <c r="C783" s="2"/>
       <c r="F783" s="2"/>
+      <c r="I783" s="2"/>
     </row>
     <row r="784">
       <c r="C784" s="2"/>
       <c r="F784" s="2"/>
+      <c r="I784" s="2"/>
     </row>
     <row r="785">
       <c r="C785" s="2"/>
       <c r="F785" s="2"/>
+      <c r="I785" s="2"/>
     </row>
     <row r="786">
       <c r="C786" s="2"/>
       <c r="F786" s="2"/>
+      <c r="I786" s="2"/>
     </row>
     <row r="787">
       <c r="C787" s="2"/>
       <c r="F787" s="2"/>
+      <c r="I787" s="2"/>
     </row>
     <row r="788">
       <c r="C788" s="2"/>
       <c r="F788" s="2"/>
+      <c r="I788" s="2"/>
     </row>
     <row r="789">
       <c r="C789" s="2"/>
       <c r="F789" s="2"/>
+      <c r="I789" s="2"/>
     </row>
     <row r="790">
       <c r="C790" s="2"/>
       <c r="F790" s="2"/>
+      <c r="I790" s="2"/>
     </row>
     <row r="791">
       <c r="C791" s="2"/>
       <c r="F791" s="2"/>
+      <c r="I791" s="2"/>
     </row>
     <row r="792">
       <c r="C792" s="2"/>
       <c r="F792" s="2"/>
+      <c r="I792" s="2"/>
     </row>
     <row r="793">
       <c r="C793" s="2"/>
       <c r="F793" s="2"/>
+      <c r="I793" s="2"/>
     </row>
     <row r="794">
       <c r="C794" s="2"/>
       <c r="F794" s="2"/>
+      <c r="I794" s="2"/>
     </row>
     <row r="795">
       <c r="C795" s="2"/>
       <c r="F795" s="2"/>
+      <c r="I795" s="2"/>
     </row>
     <row r="796">
       <c r="C796" s="2"/>
       <c r="F796" s="2"/>
+      <c r="I796" s="2"/>
     </row>
     <row r="797">
       <c r="C797" s="2"/>
       <c r="F797" s="2"/>
+      <c r="I797" s="2"/>
     </row>
     <row r="798">
       <c r="C798" s="2"/>
       <c r="F798" s="2"/>
+      <c r="I798" s="2"/>
     </row>
     <row r="799">
       <c r="C799" s="2"/>
       <c r="F799" s="2"/>
+      <c r="I799" s="2"/>
     </row>
     <row r="800">
       <c r="C800" s="2"/>
       <c r="F800" s="2"/>
+      <c r="I800" s="2"/>
     </row>
     <row r="801">
       <c r="C801" s="2"/>
       <c r="F801" s="2"/>
+      <c r="I801" s="2"/>
     </row>
     <row r="802">
       <c r="C802" s="2"/>
       <c r="F802" s="2"/>
+      <c r="I802" s="2"/>
     </row>
     <row r="803">
       <c r="C803" s="2"/>
       <c r="F803" s="2"/>
+      <c r="I803" s="2"/>
     </row>
     <row r="804">
       <c r="C804" s="2"/>
       <c r="F804" s="2"/>
+      <c r="I804" s="2"/>
     </row>
     <row r="805">
       <c r="C805" s="2"/>
       <c r="F805" s="2"/>
+      <c r="I805" s="2"/>
     </row>
     <row r="806">
       <c r="C806" s="2"/>
       <c r="F806" s="2"/>
+      <c r="I806" s="2"/>
     </row>
     <row r="807">
       <c r="C807" s="2"/>
       <c r="F807" s="2"/>
+      <c r="I807" s="2"/>
     </row>
     <row r="808">
       <c r="C808" s="2"/>
       <c r="F808" s="2"/>
+      <c r="I808" s="2"/>
     </row>
     <row r="809">
       <c r="C809" s="2"/>
       <c r="F809" s="2"/>
+      <c r="I809" s="2"/>
     </row>
     <row r="810">
       <c r="C810" s="2"/>
       <c r="F810" s="2"/>
+      <c r="I810" s="2"/>
     </row>
     <row r="811">
       <c r="C811" s="2"/>
       <c r="F811" s="2"/>
+      <c r="I811" s="2"/>
     </row>
     <row r="812">
       <c r="C812" s="2"/>
       <c r="F812" s="2"/>
+      <c r="I812" s="2"/>
     </row>
     <row r="813">
       <c r="C813" s="2"/>
       <c r="F813" s="2"/>
+      <c r="I813" s="2"/>
     </row>
     <row r="814">
       <c r="C814" s="2"/>
       <c r="F814" s="2"/>
+      <c r="I814" s="2"/>
     </row>
     <row r="815">
       <c r="C815" s="2"/>
       <c r="F815" s="2"/>
+      <c r="I815" s="2"/>
     </row>
     <row r="816">
       <c r="C816" s="2"/>
       <c r="F816" s="2"/>
+      <c r="I816" s="2"/>
     </row>
     <row r="817">
       <c r="C817" s="2"/>
       <c r="F817" s="2"/>
+      <c r="I817" s="2"/>
     </row>
     <row r="818">
       <c r="C818" s="2"/>
       <c r="F818" s="2"/>
+      <c r="I818" s="2"/>
     </row>
     <row r="819">
       <c r="C819" s="2"/>
       <c r="F819" s="2"/>
+      <c r="I819" s="2"/>
     </row>
     <row r="820">
       <c r="C820" s="2"/>
       <c r="F820" s="2"/>
+      <c r="I820" s="2"/>
     </row>
     <row r="821">
       <c r="C821" s="2"/>
       <c r="F821" s="2"/>
+      <c r="I821" s="2"/>
     </row>
     <row r="822">
       <c r="C822" s="2"/>
       <c r="F822" s="2"/>
+      <c r="I822" s="2"/>
     </row>
     <row r="823">
       <c r="C823" s="2"/>
       <c r="F823" s="2"/>
+      <c r="I823" s="2"/>
     </row>
     <row r="824">
       <c r="C824" s="2"/>
       <c r="F824" s="2"/>
+      <c r="I824" s="2"/>
     </row>
     <row r="825">
       <c r="C825" s="2"/>
       <c r="F825" s="2"/>
+      <c r="I825" s="2"/>
     </row>
     <row r="826">
       <c r="C826" s="2"/>
       <c r="F826" s="2"/>
+      <c r="I826" s="2"/>
     </row>
     <row r="827">
       <c r="C827" s="2"/>
       <c r="F827" s="2"/>
+      <c r="I827" s="2"/>
     </row>
     <row r="828">
       <c r="C828" s="2"/>
       <c r="F828" s="2"/>
+      <c r="I828" s="2"/>
     </row>
     <row r="829">
       <c r="C829" s="2"/>
       <c r="F829" s="2"/>
+      <c r="I829" s="2"/>
     </row>
     <row r="830">
       <c r="C830" s="2"/>
       <c r="F830" s="2"/>
+      <c r="I830" s="2"/>
     </row>
     <row r="831">
       <c r="C831" s="2"/>
       <c r="F831" s="2"/>
+      <c r="I831" s="2"/>
     </row>
     <row r="832">
       <c r="C832" s="2"/>
       <c r="F832" s="2"/>
+      <c r="I832" s="2"/>
     </row>
     <row r="833">
       <c r="C833" s="2"/>
       <c r="F833" s="2"/>
+      <c r="I833" s="2"/>
     </row>
     <row r="834">
       <c r="C834" s="2"/>
       <c r="F834" s="2"/>
+      <c r="I834" s="2"/>
     </row>
     <row r="835">
       <c r="C835" s="2"/>
       <c r="F835" s="2"/>
+      <c r="I835" s="2"/>
     </row>
     <row r="836">
       <c r="C836" s="2"/>
       <c r="F836" s="2"/>
+      <c r="I836" s="2"/>
     </row>
     <row r="837">
       <c r="C837" s="2"/>
       <c r="F837" s="2"/>
+      <c r="I837" s="2"/>
     </row>
     <row r="838">
       <c r="C838" s="2"/>
       <c r="F838" s="2"/>
+      <c r="I838" s="2"/>
     </row>
     <row r="839">
       <c r="C839" s="2"/>
       <c r="F839" s="2"/>
+      <c r="I839" s="2"/>
     </row>
     <row r="840">
       <c r="C840" s="2"/>
       <c r="F840" s="2"/>
+      <c r="I840" s="2"/>
     </row>
     <row r="841">
       <c r="C841" s="2"/>
       <c r="F841" s="2"/>
+      <c r="I841" s="2"/>
     </row>
     <row r="842">
       <c r="C842" s="2"/>
       <c r="F842" s="2"/>
+      <c r="I842" s="2"/>
     </row>
     <row r="843">
       <c r="C843" s="2"/>
       <c r="F843" s="2"/>
+      <c r="I843" s="2"/>
     </row>
     <row r="844">
       <c r="C844" s="2"/>
       <c r="F844" s="2"/>
+      <c r="I844" s="2"/>
     </row>
     <row r="845">
       <c r="C845" s="2"/>
       <c r="F845" s="2"/>
+      <c r="I845" s="2"/>
     </row>
     <row r="846">
       <c r="C846" s="2"/>
       <c r="F846" s="2"/>
+      <c r="I846" s="2"/>
     </row>
     <row r="847">
       <c r="C847" s="2"/>
       <c r="F847" s="2"/>
+      <c r="I847" s="2"/>
     </row>
     <row r="848">
       <c r="C848" s="2"/>
       <c r="F848" s="2"/>
+      <c r="I848" s="2"/>
     </row>
     <row r="849">
       <c r="C849" s="2"/>
       <c r="F849" s="2"/>
+      <c r="I849" s="2"/>
     </row>
     <row r="850">
       <c r="C850" s="2"/>
       <c r="F850" s="2"/>
+      <c r="I850" s="2"/>
     </row>
     <row r="851">
       <c r="C851" s="2"/>
       <c r="F851" s="2"/>
+      <c r="I851" s="2"/>
     </row>
     <row r="852">
       <c r="C852" s="2"/>
       <c r="F852" s="2"/>
+      <c r="I852" s="2"/>
     </row>
     <row r="853">
       <c r="C853" s="2"/>
       <c r="F853" s="2"/>
+      <c r="I853" s="2"/>
     </row>
     <row r="854">
       <c r="C854" s="2"/>
       <c r="F854" s="2"/>
+      <c r="I854" s="2"/>
     </row>
     <row r="855">
       <c r="C855" s="2"/>
       <c r="F855" s="2"/>
+      <c r="I855" s="2"/>
     </row>
     <row r="856">
       <c r="C856" s="2"/>
       <c r="F856" s="2"/>
+      <c r="I856" s="2"/>
     </row>
     <row r="857">
       <c r="C857" s="2"/>
       <c r="F857" s="2"/>
+      <c r="I857" s="2"/>
     </row>
     <row r="858">
       <c r="C858" s="2"/>
       <c r="F858" s="2"/>
+      <c r="I858" s="2"/>
     </row>
     <row r="859">
       <c r="C859" s="2"/>
       <c r="F859" s="2"/>
+      <c r="I859" s="2"/>
     </row>
     <row r="860">
       <c r="C860" s="2"/>
       <c r="F860" s="2"/>
+      <c r="I860" s="2"/>
     </row>
     <row r="861">
       <c r="C861" s="2"/>
       <c r="F861" s="2"/>
+      <c r="I861" s="2"/>
     </row>
     <row r="862">
       <c r="C862" s="2"/>
       <c r="F862" s="2"/>
+      <c r="I862" s="2"/>
     </row>
     <row r="863">
       <c r="C863" s="2"/>
       <c r="F863" s="2"/>
+      <c r="I863" s="2"/>
     </row>
     <row r="864">
       <c r="C864" s="2"/>
       <c r="F864" s="2"/>
+      <c r="I864" s="2"/>
     </row>
     <row r="865">
       <c r="C865" s="2"/>
       <c r="F865" s="2"/>
+      <c r="I865" s="2"/>
     </row>
     <row r="866">
       <c r="C866" s="2"/>
       <c r="F866" s="2"/>
+      <c r="I866" s="2"/>
     </row>
     <row r="867">
       <c r="C867" s="2"/>
       <c r="F867" s="2"/>
+      <c r="I867" s="2"/>
     </row>
     <row r="868">
       <c r="C868" s="2"/>
       <c r="F868" s="2"/>
+      <c r="I868" s="2"/>
     </row>
     <row r="869">
       <c r="C869" s="2"/>
       <c r="F869" s="2"/>
+      <c r="I869" s="2"/>
     </row>
     <row r="870">
       <c r="C870" s="2"/>
       <c r="F870" s="2"/>
+      <c r="I870" s="2"/>
     </row>
     <row r="871">
       <c r="C871" s="2"/>
       <c r="F871" s="2"/>
+      <c r="I871" s="2"/>
     </row>
     <row r="872">
       <c r="C872" s="2"/>
       <c r="F872" s="2"/>
+      <c r="I872" s="2"/>
     </row>
     <row r="873">
       <c r="C873" s="2"/>
       <c r="F873" s="2"/>
+      <c r="I873" s="2"/>
     </row>
     <row r="874">
       <c r="C874" s="2"/>
       <c r="F874" s="2"/>
+      <c r="I874" s="2"/>
     </row>
     <row r="875">
       <c r="C875" s="2"/>
       <c r="F875" s="2"/>
+      <c r="I875" s="2"/>
     </row>
     <row r="876">
       <c r="C876" s="2"/>
       <c r="F876" s="2"/>
+      <c r="I876" s="2"/>
     </row>
     <row r="877">
       <c r="C877" s="2"/>
       <c r="F877" s="2"/>
+      <c r="I877" s="2"/>
     </row>
     <row r="878">
       <c r="C878" s="2"/>
       <c r="F878" s="2"/>
+      <c r="I878" s="2"/>
     </row>
     <row r="879">
       <c r="C879" s="2"/>
       <c r="F879" s="2"/>
+      <c r="I879" s="2"/>
     </row>
     <row r="880">
       <c r="C880" s="2"/>
       <c r="F880" s="2"/>
+      <c r="I880" s="2"/>
     </row>
     <row r="881">
       <c r="C881" s="2"/>
       <c r="F881" s="2"/>
+      <c r="I881" s="2"/>
     </row>
     <row r="882">
       <c r="C882" s="2"/>
       <c r="F882" s="2"/>
+      <c r="I882" s="2"/>
     </row>
     <row r="883">
       <c r="C883" s="2"/>
       <c r="F883" s="2"/>
+      <c r="I883" s="2"/>
     </row>
     <row r="884">
       <c r="C884" s="2"/>
       <c r="F884" s="2"/>
+      <c r="I884" s="2"/>
     </row>
     <row r="885">
       <c r="C885" s="2"/>
       <c r="F885" s="2"/>
+      <c r="I885" s="2"/>
     </row>
     <row r="886">
       <c r="C886" s="2"/>
       <c r="F886" s="2"/>
+      <c r="I886" s="2"/>
     </row>
     <row r="887">
       <c r="C887" s="2"/>
       <c r="F887" s="2"/>
+      <c r="I887" s="2"/>
     </row>
     <row r="888">
       <c r="C888" s="2"/>
       <c r="F888" s="2"/>
+      <c r="I888" s="2"/>
     </row>
     <row r="889">
       <c r="C889" s="2"/>
       <c r="F889" s="2"/>
+      <c r="I889" s="2"/>
     </row>
     <row r="890">
       <c r="C890" s="2"/>
       <c r="F890" s="2"/>
+      <c r="I890" s="2"/>
     </row>
     <row r="891">
       <c r="C891" s="2"/>
       <c r="F891" s="2"/>
+      <c r="I891" s="2"/>
     </row>
     <row r="892">
       <c r="C892" s="2"/>
       <c r="F892" s="2"/>
+      <c r="I892" s="2"/>
     </row>
     <row r="893">
       <c r="C893" s="2"/>
       <c r="F893" s="2"/>
+      <c r="I893" s="2"/>
     </row>
     <row r="894">
       <c r="C894" s="2"/>
       <c r="F894" s="2"/>
+      <c r="I894" s="2"/>
     </row>
     <row r="895">
       <c r="C895" s="2"/>
       <c r="F895" s="2"/>
+      <c r="I895" s="2"/>
     </row>
     <row r="896">
       <c r="C896" s="2"/>
       <c r="F896" s="2"/>
+      <c r="I896" s="2"/>
     </row>
     <row r="897">
       <c r="C897" s="2"/>
       <c r="F897" s="2"/>
+      <c r="I897" s="2"/>
     </row>
     <row r="898">
       <c r="C898" s="2"/>
       <c r="F898" s="2"/>
+      <c r="I898" s="2"/>
     </row>
     <row r="899">
       <c r="C899" s="2"/>
       <c r="F899" s="2"/>
+      <c r="I899" s="2"/>
     </row>
     <row r="900">
       <c r="C900" s="2"/>
       <c r="F900" s="2"/>
+      <c r="I900" s="2"/>
     </row>
     <row r="901">
       <c r="C901" s="2"/>
       <c r="F901" s="2"/>
+      <c r="I901" s="2"/>
     </row>
     <row r="902">
       <c r="C902" s="2"/>
       <c r="F902" s="2"/>
+      <c r="I902" s="2"/>
     </row>
     <row r="903">
       <c r="C903" s="2"/>
       <c r="F903" s="2"/>
+      <c r="I903" s="2"/>
     </row>
     <row r="904">
       <c r="C904" s="2"/>
       <c r="F904" s="2"/>
+      <c r="I904" s="2"/>
     </row>
     <row r="905">
       <c r="C905" s="2"/>
       <c r="F905" s="2"/>
+      <c r="I905" s="2"/>
     </row>
     <row r="906">
       <c r="C906" s="2"/>
       <c r="F906" s="2"/>
+      <c r="I906" s="2"/>
     </row>
     <row r="907">
       <c r="C907" s="2"/>
       <c r="F907" s="2"/>
+      <c r="I907" s="2"/>
     </row>
     <row r="908">
       <c r="C908" s="2"/>
       <c r="F908" s="2"/>
+      <c r="I908" s="2"/>
     </row>
     <row r="909">
       <c r="C909" s="2"/>
       <c r="F909" s="2"/>
+      <c r="I909" s="2"/>
     </row>
     <row r="910">
       <c r="C910" s="2"/>
       <c r="F910" s="2"/>
+      <c r="I910" s="2"/>
     </row>
     <row r="911">
       <c r="C911" s="2"/>
       <c r="F911" s="2"/>
+      <c r="I911" s="2"/>
     </row>
     <row r="912">
       <c r="C912" s="2"/>
       <c r="F912" s="2"/>
+      <c r="I912" s="2"/>
     </row>
     <row r="913">
       <c r="C913" s="2"/>
       <c r="F913" s="2"/>
+      <c r="I913" s="2"/>
     </row>
     <row r="914">
       <c r="C914" s="2"/>
       <c r="F914" s="2"/>
+      <c r="I914" s="2"/>
     </row>
     <row r="915">
       <c r="C915" s="2"/>
       <c r="F915" s="2"/>
+      <c r="I915" s="2"/>
     </row>
     <row r="916">
       <c r="C916" s="2"/>
       <c r="F916" s="2"/>
+      <c r="I916" s="2"/>
     </row>
     <row r="917">
       <c r="C917" s="2"/>
       <c r="F917" s="2"/>
+      <c r="I917" s="2"/>
     </row>
     <row r="918">
       <c r="C918" s="2"/>
       <c r="F918" s="2"/>
+      <c r="I918" s="2"/>
     </row>
     <row r="919">
       <c r="C919" s="2"/>
       <c r="F919" s="2"/>
+      <c r="I919" s="2"/>
     </row>
     <row r="920">
       <c r="C920" s="2"/>
       <c r="F920" s="2"/>
+      <c r="I920" s="2"/>
     </row>
     <row r="921">
       <c r="C921" s="2"/>
       <c r="F921" s="2"/>
+      <c r="I921" s="2"/>
     </row>
     <row r="922">
       <c r="C922" s="2"/>
       <c r="F922" s="2"/>
+      <c r="I922" s="2"/>
     </row>
     <row r="923">
       <c r="C923" s="2"/>
       <c r="F923" s="2"/>
+      <c r="I923" s="2"/>
     </row>
     <row r="924">
       <c r="C924" s="2"/>
       <c r="F924" s="2"/>
+      <c r="I924" s="2"/>
     </row>
     <row r="925">
       <c r="C925" s="2"/>
       <c r="F925" s="2"/>
+      <c r="I925" s="2"/>
     </row>
     <row r="926">
       <c r="C926" s="2"/>
       <c r="F926" s="2"/>
+      <c r="I926" s="2"/>
     </row>
     <row r="927">
       <c r="C927" s="2"/>
       <c r="F927" s="2"/>
+      <c r="I927" s="2"/>
     </row>
     <row r="928">
       <c r="C928" s="2"/>
       <c r="F928" s="2"/>
+      <c r="I928" s="2"/>
     </row>
     <row r="929">
       <c r="C929" s="2"/>
       <c r="F929" s="2"/>
+      <c r="I929" s="2"/>
     </row>
     <row r="930">
       <c r="C930" s="2"/>
       <c r="F930" s="2"/>
+      <c r="I930" s="2"/>
     </row>
     <row r="931">
       <c r="C931" s="2"/>
       <c r="F931" s="2"/>
+      <c r="I931" s="2"/>
     </row>
     <row r="932">
       <c r="C932" s="2"/>
       <c r="F932" s="2"/>
+      <c r="I932" s="2"/>
     </row>
     <row r="933">
       <c r="C933" s="2"/>
       <c r="F933" s="2"/>
+      <c r="I933" s="2"/>
     </row>
     <row r="934">
       <c r="C934" s="2"/>
       <c r="F934" s="2"/>
+      <c r="I934" s="2"/>
     </row>
     <row r="935">
       <c r="C935" s="2"/>
       <c r="F935" s="2"/>
+      <c r="I935" s="2"/>
     </row>
     <row r="936">
       <c r="C936" s="2"/>
       <c r="F936" s="2"/>
+      <c r="I936" s="2"/>
     </row>
     <row r="937">
       <c r="C937" s="2"/>
       <c r="F937" s="2"/>
+      <c r="I937" s="2"/>
     </row>
     <row r="938">
       <c r="C938" s="2"/>
       <c r="F938" s="2"/>
+      <c r="I938" s="2"/>
     </row>
     <row r="939">
       <c r="C939" s="2"/>
       <c r="F939" s="2"/>
+      <c r="I939" s="2"/>
     </row>
     <row r="940">
       <c r="C940" s="2"/>
       <c r="F940" s="2"/>
+      <c r="I940" s="2"/>
     </row>
     <row r="941">
       <c r="C941" s="2"/>
       <c r="F941" s="2"/>
+      <c r="I941" s="2"/>
     </row>
     <row r="942">
       <c r="C942" s="2"/>
       <c r="F942" s="2"/>
+      <c r="I942" s="2"/>
     </row>
     <row r="943">
       <c r="C943" s="2"/>
       <c r="F943" s="2"/>
+      <c r="I943" s="2"/>
     </row>
     <row r="944">
       <c r="C944" s="2"/>
       <c r="F944" s="2"/>
+      <c r="I944" s="2"/>
     </row>
     <row r="945">
       <c r="C945" s="2"/>
       <c r="F945" s="2"/>
+      <c r="I945" s="2"/>
     </row>
     <row r="946">
       <c r="C946" s="2"/>
       <c r="F946" s="2"/>
+      <c r="I946" s="2"/>
     </row>
     <row r="947">
       <c r="C947" s="2"/>
       <c r="F947" s="2"/>
+      <c r="I947" s="2"/>
     </row>
     <row r="948">
       <c r="C948" s="2"/>
       <c r="F948" s="2"/>
+      <c r="I948" s="2"/>
     </row>
     <row r="949">
       <c r="C949" s="2"/>
       <c r="F949" s="2"/>
+      <c r="I949" s="2"/>
     </row>
     <row r="950">
       <c r="C950" s="2"/>
       <c r="F950" s="2"/>
+      <c r="I950" s="2"/>
     </row>
     <row r="951">
       <c r="C951" s="2"/>
       <c r="F951" s="2"/>
+      <c r="I951" s="2"/>
     </row>
     <row r="952">
       <c r="C952" s="2"/>
       <c r="F952" s="2"/>
+      <c r="I952" s="2"/>
     </row>
     <row r="953">
       <c r="C953" s="2"/>
       <c r="F953" s="2"/>
+      <c r="I953" s="2"/>
     </row>
     <row r="954">
       <c r="C954" s="2"/>
       <c r="F954" s="2"/>
+      <c r="I954" s="2"/>
     </row>
     <row r="955">
       <c r="C955" s="2"/>
       <c r="F955" s="2"/>
+      <c r="I955" s="2"/>
     </row>
     <row r="956">
       <c r="C956" s="2"/>
       <c r="F956" s="2"/>
+      <c r="I956" s="2"/>
     </row>
     <row r="957">
       <c r="C957" s="2"/>
       <c r="F957" s="2"/>
+      <c r="I957" s="2"/>
     </row>
     <row r="958">
       <c r="C958" s="2"/>
       <c r="F958" s="2"/>
+      <c r="I958" s="2"/>
     </row>
     <row r="959">
       <c r="C959" s="2"/>
       <c r="F959" s="2"/>
+      <c r="I959" s="2"/>
     </row>
     <row r="960">
       <c r="C960" s="2"/>
       <c r="F960" s="2"/>
+      <c r="I960" s="2"/>
     </row>
     <row r="961">
       <c r="C961" s="2"/>
       <c r="F961" s="2"/>
+      <c r="I961" s="2"/>
     </row>
     <row r="962">
       <c r="C962" s="2"/>
       <c r="F962" s="2"/>
+      <c r="I962" s="2"/>
     </row>
     <row r="963">
       <c r="C963" s="2"/>
       <c r="F963" s="2"/>
+      <c r="I963" s="2"/>
     </row>
     <row r="964">
       <c r="C964" s="2"/>
       <c r="F964" s="2"/>
+      <c r="I964" s="2"/>
     </row>
     <row r="965">
       <c r="C965" s="2"/>
       <c r="F965" s="2"/>
+      <c r="I965" s="2"/>
     </row>
     <row r="966">
       <c r="C966" s="2"/>
       <c r="F966" s="2"/>
+      <c r="I966" s="2"/>
     </row>
     <row r="967">
       <c r="C967" s="2"/>
       <c r="F967" s="2"/>
+      <c r="I967" s="2"/>
     </row>
     <row r="968">
       <c r="C968" s="2"/>
       <c r="F968" s="2"/>
+      <c r="I968" s="2"/>
     </row>
     <row r="969">
       <c r="C969" s="2"/>
       <c r="F969" s="2"/>
+      <c r="I969" s="2"/>
     </row>
     <row r="970">
       <c r="C970" s="2"/>
       <c r="F970" s="2"/>
+      <c r="I970" s="2"/>
     </row>
     <row r="971">
       <c r="C971" s="2"/>
       <c r="F971" s="2"/>
+      <c r="I971" s="2"/>
     </row>
     <row r="972">
       <c r="C972" s="2"/>
       <c r="F972" s="2"/>
+      <c r="I972" s="2"/>
     </row>
     <row r="973">
       <c r="C973" s="2"/>
       <c r="F973" s="2"/>
+      <c r="I973" s="2"/>
     </row>
     <row r="974">
       <c r="C974" s="2"/>
       <c r="F974" s="2"/>
+      <c r="I974" s="2"/>
     </row>
     <row r="975">
       <c r="C975" s="2"/>
       <c r="F975" s="2"/>
+      <c r="I975" s="2"/>
     </row>
     <row r="976">
       <c r="C976" s="2"/>
       <c r="F976" s="2"/>
+      <c r="I976" s="2"/>
     </row>
     <row r="977">
       <c r="C977" s="2"/>
       <c r="F977" s="2"/>
+      <c r="I977" s="2"/>
     </row>
     <row r="978">
       <c r="C978" s="2"/>
       <c r="F978" s="2"/>
+      <c r="I978" s="2"/>
     </row>
     <row r="979">
       <c r="C979" s="2"/>
       <c r="F979" s="2"/>
+      <c r="I979" s="2"/>
     </row>
     <row r="980">
       <c r="C980" s="2"/>
       <c r="F980" s="2"/>
+      <c r="I980" s="2"/>
     </row>
     <row r="981">
       <c r="C981" s="2"/>
       <c r="F981" s="2"/>
+      <c r="I981" s="2"/>
     </row>
     <row r="982">
       <c r="C982" s="2"/>
       <c r="F982" s="2"/>
+      <c r="I982" s="2"/>
     </row>
     <row r="983">
       <c r="C983" s="2"/>
       <c r="F983" s="2"/>
+      <c r="I983" s="2"/>
     </row>
     <row r="984">
       <c r="C984" s="2"/>
       <c r="F984" s="2"/>
+      <c r="I984" s="2"/>
     </row>
     <row r="985">
       <c r="C985" s="2"/>
       <c r="F985" s="2"/>
+      <c r="I985" s="2"/>
     </row>
     <row r="986">
       <c r="C986" s="2"/>
       <c r="F986" s="2"/>
+      <c r="I986" s="2"/>
     </row>
     <row r="987">
       <c r="C987" s="2"/>
       <c r="F987" s="2"/>
+      <c r="I987" s="2"/>
     </row>
     <row r="988">
       <c r="C988" s="2"/>
       <c r="F988" s="2"/>
+      <c r="I988" s="2"/>
     </row>
     <row r="989">
       <c r="C989" s="2"/>
       <c r="F989" s="2"/>
+      <c r="I989" s="2"/>
     </row>
     <row r="990">
       <c r="C990" s="2"/>
       <c r="F990" s="2"/>
+      <c r="I990" s="2"/>
     </row>
     <row r="991">
       <c r="C991" s="2"/>
       <c r="F991" s="2"/>
+      <c r="I991" s="2"/>
     </row>
     <row r="992">
       <c r="C992" s="2"/>
       <c r="F992" s="2"/>
+      <c r="I992" s="2"/>
     </row>
     <row r="993">
       <c r="C993" s="2"/>
       <c r="F993" s="2"/>
+      <c r="I993" s="2"/>
     </row>
     <row r="994">
       <c r="C994" s="2"/>
       <c r="F994" s="2"/>
+      <c r="I994" s="2"/>
     </row>
     <row r="995">
       <c r="C995" s="2"/>
       <c r="F995" s="2"/>
+      <c r="I995" s="2"/>
     </row>
     <row r="996">
       <c r="C996" s="2"/>
       <c r="F996" s="2"/>
+      <c r="I996" s="2"/>
     </row>
     <row r="997">
       <c r="C997" s="2"/>
       <c r="F997" s="2"/>
+      <c r="I997" s="2"/>
     </row>
     <row r="998">
       <c r="C998" s="2"/>
       <c r="F998" s="2"/>
+      <c r="I998" s="2"/>
     </row>
     <row r="999">
       <c r="C999" s="2"/>
       <c r="F999" s="2"/>
+      <c r="I999" s="2"/>
     </row>
     <row r="1000">
       <c r="C1000" s="2"/>
       <c r="F1000" s="2"/>
+      <c r="I1000" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
